--- a/Input-Spreadsheet.xlsx
+++ b/Input-Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\terraform-aci-fabric-deploy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4951E113-357D-42EE-9883-0193BA260A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC24363-49D3-4C29-BB11-019B28C418F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="660" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fabric" sheetId="7" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Subnet" sheetId="12" r:id="rId10"/>
     <sheet name="DHCP Relay" sheetId="13" r:id="rId11"/>
     <sheet name="formulas" sheetId="3" r:id="rId12"/>
+    <sheet name="leaf101" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="leaf">formulas!$B$2:$B$18</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="578">
   <si>
     <t>Type</t>
   </si>
@@ -770,9 +771,6 @@
     <t>9336PQ</t>
   </si>
   <si>
-    <t>Define Spine Modules</t>
-  </si>
-  <si>
     <t>Spine Type</t>
   </si>
   <si>
@@ -2145,6 +2143,111 @@
       </rPr>
       <t xml:space="preserve"> i.e. apic:ISE\cisco_user</t>
     </r>
+  </si>
+  <si>
+    <t>Inband VLAN</t>
+  </si>
+  <si>
+    <t>Define Spine Modules (Modular Spines)</t>
+  </si>
+  <si>
+    <t>leaf101 Interface Selectors</t>
+  </si>
+  <si>
+    <t>Eth1-11</t>
+  </si>
+  <si>
+    <t>Eth1-12</t>
+  </si>
+  <si>
+    <t>Eth1-13</t>
+  </si>
+  <si>
+    <t>Eth1-14</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>1/11</t>
+  </si>
+  <si>
+    <t>1/12</t>
+  </si>
+  <si>
+    <t>1/13</t>
+  </si>
+  <si>
+    <t>1/14</t>
+  </si>
+  <si>
+    <t>Policy_Group</t>
+  </si>
+  <si>
+    <t>Switchport_Mode</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>Access_or_Native</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>998-999</t>
+  </si>
+  <si>
+    <t>1-994,997,999-4094</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>169,811-812,3960,3963,3965-3967</t>
+  </si>
+  <si>
+    <t>168,812,3910,3961-3962,3964</t>
+  </si>
+  <si>
+    <t>Trunk_Allowed_VLANs</t>
+  </si>
+  <si>
+    <t>add_selct</t>
   </si>
 </sst>
 </file>
@@ -3051,11 +3154,11 @@
     <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3530,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298A81F1-38AC-4BF5-848F-F28E1CADD09C}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,28 +3660,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3612,45 +3715,45 @@
       <c r="M3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
@@ -3709,21 +3812,21 @@
       <c r="M9" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -3733,7 +3836,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3748,7 +3851,7 @@
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>28</v>
@@ -3769,7 +3872,7 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>104</v>
@@ -3789,34 +3892,34 @@
       <c r="M14" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -3913,40 +4016,40 @@
         <v>0</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="E23" s="40" t="s">
+      <c r="F23" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="G23" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="H23" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3975,7 +4078,7 @@
         <v>120</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>121</v>
@@ -3992,34 +4095,34 @@
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>418</v>
-      </c>
       <c r="D27" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -4078,45 +4181,45 @@
       <c r="M29" s="24"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="49" t="s">
-        <v>530</v>
-      </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
+      <c r="B32" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>34</v>
@@ -4176,31 +4279,31 @@
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>419</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>420</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -4256,42 +4359,42 @@
     </row>
     <row r="43" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
     </row>
     <row r="44" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>423</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>425</v>
-      </c>
       <c r="G44" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -4360,57 +4463,57 @@
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
     </row>
     <row r="49" spans="1:26" s="3" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
-      <c r="B49" s="49" t="s">
-        <v>513</v>
-      </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
+      <c r="B49" s="50" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
     </row>
     <row r="50" spans="1:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -4501,21 +4604,21 @@
     </row>
     <row r="54" spans="1:26" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="50" t="s">
-        <v>514</v>
-      </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
+      <c r="A55" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
       <c r="N55" s="47"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -4532,20 +4635,20 @@
     </row>
     <row r="56" spans="1:26" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
-      <c r="B56" s="49" t="s">
-        <v>532</v>
-      </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
+      <c r="B56" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
       <c r="N56" s="48"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -4564,48 +4667,48 @@
         <v>0</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>525</v>
-      </c>
       <c r="K57" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="L57" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="M57" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="M57" s="8" t="s">
+      <c r="N57" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="58" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>69</v>
@@ -4614,7 +4717,7 @@
         <v>58</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>57</v>
@@ -4648,37 +4751,37 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
+      <c r="A60" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
     </row>
     <row r="61" spans="1:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>54</v>
@@ -4695,7 +4798,7 @@
     </row>
     <row r="62" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B62" s="46" t="s">
         <v>69</v>
@@ -4724,13 +4827,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A11:M11"/>
     <mergeCell ref="A26:M26"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A31:M31"/>
@@ -4742,6 +4838,13 @@
     <mergeCell ref="B43:M43"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="B49:M49"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <dataValidations count="27">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 D18:D19 D28:D29 G45:G46 D24 E62" xr:uid="{3AE7F0E0-8CE0-44F9-A53F-86B9AF78CE0A}">
@@ -4871,7 +4974,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -4889,7 +4992,7 @@
     <row r="2" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -4908,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>508</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>34</v>
@@ -4932,19 +5035,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -5062,7 +5165,7 @@
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -5080,7 +5183,7 @@
     <row r="14" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -5099,22 +5202,22 @@
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>511</v>
-      </c>
       <c r="E15" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -5125,7 +5228,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>6</v>
@@ -5134,10 +5237,10 @@
         <v>201</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -5296,7 +5399,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,10 +5424,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5338,10 +5441,10 @@
         <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5355,10 +5458,10 @@
         <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5369,10 +5472,10 @@
         <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5383,7 +5486,7 @@
         <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5474,6 +5577,446 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91DD70-D335-4400-8018-6AA4507345E0}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="LACP Policy" error="Please Select a Valid Value" sqref="H3:H16" xr:uid="{834A3217-CD5C-4110-8DD0-5439C5C46FF7}">
+      <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static,n/a"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A16" xr:uid="{80A5FFC0-CA46-445F-B3C2-8A8F6593AB0B}">
+      <formula1>"add_selct"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5481,8 +6024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5507,303 +6050,251 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="20">
         <v>100</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="28">
-        <v>101</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="B13" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="20">
-        <v>9508</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="25">
-        <v>201</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="25">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="28">
-        <v>202</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="28">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="18">
+        <v>100</v>
+      </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -5812,786 +6303,842 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="23" spans="1:17" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-    </row>
-    <row r="24" spans="1:17" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="54" t="s">
-        <v>400</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-    </row>
-    <row r="25" spans="1:17" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="28">
+        <v>101</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="28">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="20">
+        <v>9508</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="25">
+        <v>201</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="28">
+        <v>202</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="34" spans="1:17" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+    </row>
+    <row r="36" spans="1:17" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J36" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="K36" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="L36" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="M36" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N36" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="O36" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="P36" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="Q36" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="Q25" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="19" t="s">
+    </row>
+    <row r="37" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C37" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-    </row>
-    <row r="27" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-    </row>
-    <row r="29" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-    </row>
-    <row r="31" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+    </row>
+    <row r="38" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+    </row>
+    <row r="39" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+    </row>
+    <row r="40" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+    </row>
+    <row r="41" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+    </row>
+    <row r="42" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+    </row>
+    <row r="44" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-    </row>
-    <row r="34" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="53" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+    </row>
+    <row r="45" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11"/>
+      <c r="B45" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="34">
-        <v>201</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="28">
-        <v>201</v>
-      </c>
-      <c r="E36" s="28">
-        <v>202</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-    </row>
-    <row r="37" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-    </row>
-    <row r="44" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-    </row>
-    <row r="45" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-    </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+    </row>
+    <row r="46" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="J46" s="8" t="s">
         <v>467</v>
       </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="28">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="B47" s="34">
+        <v>201</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="D47" s="28">
-        <v>1</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="29" t="s">
-        <v>71</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E47" s="28">
+        <v>202</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="25"/>
-      <c r="E48" s="24"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
-      <c r="H48" s="30"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="24"/>
-      <c r="J48" s="30"/>
+      <c r="J48" s="24"/>
       <c r="K48" s="25"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="20"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
-      <c r="H49" s="29"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="20"/>
-      <c r="J49" s="29"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="24"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="30"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-      <c r="J50" s="30"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="25"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
     </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="28"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="29"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="20"/>
-      <c r="J51" s="29"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="24"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
-      <c r="H52" s="30"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="30"/>
+      <c r="J52" s="24"/>
       <c r="K52" s="25"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="28"/>
-      <c r="E53" s="20"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="29"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="20"/>
-      <c r="J53" s="29"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A12:M12"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="B45:M45"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="A16:M16"/>
   </mergeCells>
-  <conditionalFormatting sqref="F26:P26">
+  <conditionalFormatting sqref="F37:P37">
     <cfRule type="expression" dxfId="11" priority="8">
-      <formula>A26="9504"</formula>
+      <formula>A37="9504"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:P26">
+  <conditionalFormatting sqref="J37:P37">
     <cfRule type="expression" dxfId="10" priority="7">
-      <formula>B26="9508"</formula>
+      <formula>B37="9508"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:P27">
+  <conditionalFormatting sqref="F38:P38">
     <cfRule type="expression" dxfId="9" priority="4">
-      <formula>F27="9504"</formula>
+      <formula>F38="9504"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
+  <conditionalFormatting sqref="Q37">
     <cfRule type="expression" dxfId="8" priority="3">
-      <formula>L26="9504"</formula>
+      <formula>L37="9504"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
+  <conditionalFormatting sqref="Q37">
     <cfRule type="expression" dxfId="7" priority="2">
-      <formula>I26="9508"</formula>
+      <formula>I37="9508"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
+  <conditionalFormatting sqref="Q38">
     <cfRule type="expression" dxfId="6" priority="1">
-      <formula>Q27="9504"</formula>
+      <formula>Q38="9504"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"inband_vlan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E21" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:E32" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"unspecified,remote-leaf-wan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36:G42 G8:G21" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47:G53 G19:G32" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>switch_role</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36:H42 H8:H21" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>INDIRECT(G8)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47:H53 H19:H32" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>INDIRECT(G19)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Inband VLAN" error="VLAN must be between 5 and 3097" sqref="B3" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Inband VLAN" error="VLAN must be between 5 and 3097" sqref="B14" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>5</formula1>
       <formula2>3097</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Node ID" error="Valid Node ID is between 101 and 4000" sqref="D36:E42 D8:D21" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Node ID" error="Valid Node ID is between 101 and 4000" sqref="D47:E53 D19:D32" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>101</formula1>
       <formula2>4000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A21 A28:A31" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19:A32 A39:A42" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"switch"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47:A53" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A10" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"apic_inb"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Pod ID" error="Pod Id must be between 1 and 12!" sqref="D47:D53 F36:F42 F8:F21" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Pod ID" error="Pod Id must be between 1 and 12!" sqref="D4:D10 F47:F53 F19:F32" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="APIC Node ID" error="APIC Node ID must be between 1 and 7" sqref="C47:C53" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="APIC Node ID" error="APIC Node ID must be between 1 and 7" sqref="C4:C10" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A36:A42" xr:uid="{A2F55667-432D-4009-90B0-3CBF96713B99}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47:A53" xr:uid="{A2F55667-432D-4009-90B0-3CBF96713B99}">
       <formula1>"vpc_pair"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B36:B42" xr:uid="{2DB049D3-4D1F-4770-AA8C-B1564D6B004B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B47:B53" xr:uid="{2DB049D3-4D1F-4770-AA8C-B1564D6B004B}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:Q27" xr:uid="{B9E1CD60-47CE-4C78-A5CF-1D8D26E4840D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37:Q38" xr:uid="{B9E1CD60-47CE-4C78-A5CF-1D8D26E4840D}">
       <formula1>spine_modules</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26:A27" xr:uid="{25454335-E68C-443E-9D9A-B6A17CD777C9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A37:A38" xr:uid="{25454335-E68C-443E-9D9A-B6A17CD777C9}">
       <formula1>spine_type</formula1>
     </dataValidation>
   </dataValidations>
@@ -6605,7 +7152,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6629,7 +7176,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -6648,7 +7195,7 @@
     <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -6668,22 +7215,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>471</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -6701,7 +7248,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>8</v>
@@ -6713,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -6805,7 +7352,7 @@
     </row>
     <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
@@ -6824,7 +7371,7 @@
     <row r="12" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -6844,69 +7391,69 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>342</v>
       </c>
       <c r="G14" s="20">
         <v>1500</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>23</v>
@@ -6918,39 +7465,39 @@
         <v>23</v>
       </c>
       <c r="L14" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="N14" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D15" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="F15" s="24" t="s">
         <v>341</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>342</v>
       </c>
       <c r="G15" s="24">
         <v>1500</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>23</v>
@@ -6962,39 +7509,39 @@
         <v>23</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M15" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="N15" s="24" t="s">
         <v>397</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>350</v>
       </c>
       <c r="G16" s="20">
         <v>1500</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>23</v>
@@ -7009,36 +7556,36 @@
         <v>22</v>
       </c>
       <c r="M16" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="N16" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="F17" s="24" t="s">
         <v>349</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>350</v>
       </c>
       <c r="G17" s="24">
         <v>1500</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>23</v>
@@ -7053,36 +7600,36 @@
         <v>22</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>354</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G18" s="20">
         <v>9000</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>23</v>
@@ -7094,39 +7641,39 @@
         <v>23</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M18" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="N18" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>354</v>
-      </c>
       <c r="F19" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19" s="24">
         <v>9000</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>23</v>
@@ -7138,39 +7685,39 @@
         <v>23</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>359</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20" s="20">
         <v>9000</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>23</v>
@@ -7182,39 +7729,39 @@
         <v>23</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M20" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="N20" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>359</v>
-      </c>
       <c r="F21" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G21" s="24">
         <v>9000</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I21" s="24" t="s">
         <v>23</v>
@@ -7226,39 +7773,39 @@
         <v>23</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>364</v>
-      </c>
       <c r="F22" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" s="20">
         <v>9000</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>23</v>
@@ -7270,39 +7817,39 @@
         <v>23</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M22" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="N22" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="N22" s="20" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>364</v>
-      </c>
       <c r="F23" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" s="24">
         <v>9000</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>23</v>
@@ -7314,39 +7861,39 @@
         <v>23</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24" s="20">
         <v>9000</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>23</v>
@@ -7358,39 +7905,39 @@
         <v>23</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M24" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="N24" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" s="24">
         <v>9000</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>23</v>
@@ -7402,39 +7949,39 @@
         <v>23</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>373</v>
-      </c>
       <c r="F26" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G26" s="20">
         <v>9000</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>23</v>
@@ -7446,39 +7993,39 @@
         <v>23</v>
       </c>
       <c r="L26" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="M26" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="N26" s="20" t="s">
         <v>375</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>373</v>
-      </c>
       <c r="F27" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G27" s="24">
         <v>9000</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I27" s="24" t="s">
         <v>23</v>
@@ -7490,39 +8037,39 @@
         <v>23</v>
       </c>
       <c r="L27" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="M27" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="M27" s="24" t="s">
-        <v>375</v>
-      </c>
       <c r="N27" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G28" s="20">
         <v>9000</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>23</v>
@@ -7534,39 +8081,39 @@
         <v>23</v>
       </c>
       <c r="L28" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="M28" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="N28" s="20" t="s">
         <v>375</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G29" s="24">
         <v>9000</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>23</v>
@@ -7578,39 +8125,39 @@
         <v>23</v>
       </c>
       <c r="L29" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="M29" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="M29" s="24" t="s">
-        <v>375</v>
-      </c>
       <c r="N29" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>380</v>
-      </c>
       <c r="F30" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G30" s="20">
         <v>9000</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>23</v>
@@ -7622,39 +8169,39 @@
         <v>23</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M30" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="N30" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>380</v>
-      </c>
       <c r="F31" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G31" s="24">
         <v>9000</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>23</v>
@@ -7666,39 +8213,39 @@
         <v>23</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G32" s="20">
         <v>9000</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>23</v>
@@ -7710,39 +8257,39 @@
         <v>23</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M32" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="N32" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G33" s="24">
         <v>9000</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I33" s="24" t="s">
         <v>23</v>
@@ -7754,39 +8301,39 @@
         <v>23</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>386</v>
-      </c>
       <c r="F34" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G34" s="20">
         <v>9000</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>23</v>
@@ -7798,39 +8345,39 @@
         <v>23</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M34" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="N34" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>386</v>
-      </c>
       <c r="F35" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H35" s="24" t="s">
         <v>342</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>343</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>23</v>
@@ -7842,39 +8389,39 @@
         <v>23</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F36" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="I36" s="20" t="s">
         <v>23</v>
@@ -7886,39 +8433,39 @@
         <v>23</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M36" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="N36" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F37" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H37" s="24" t="s">
         <v>342</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>343</v>
       </c>
       <c r="I37" s="24" t="s">
         <v>23</v>
@@ -7930,39 +8477,39 @@
         <v>23</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>393</v>
-      </c>
       <c r="F38" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>23</v>
@@ -7974,39 +8521,39 @@
         <v>23</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M38" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="N38" s="20" t="s">
         <v>394</v>
-      </c>
-      <c r="N38" s="20" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>393</v>
-      </c>
       <c r="F39" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="H39" s="24" t="s">
         <v>342</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>343</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>23</v>
@@ -8018,13 +8565,13 @@
         <v>23</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -8129,7 +8676,7 @@
     <row r="2" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
@@ -8149,40 +8696,40 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>484</v>
-      </c>
       <c r="F3" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>140</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>142</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>34</v>
@@ -8211,7 +8758,7 @@
         <v>141</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I4" s="28">
         <v>22</v>
@@ -8230,21 +8777,21 @@
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:14" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
@@ -8271,28 +8818,28 @@
         <v>59</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -8370,21 +8917,21 @@
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:14" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
@@ -8411,28 +8958,28 @@
         <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -8528,7 +9075,7 @@
     <row r="20" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
@@ -8553,7 +9100,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -8732,28 +9279,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -8787,48 +9334,48 @@
       <c r="M3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -8908,7 +9455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB904D4-94FB-4AFB-AF6F-8203244695EC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -8926,7 +9473,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -8944,7 +9491,7 @@
     <row r="2" spans="1:13" s="6" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -8963,10 +9510,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>492</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -8981,13 +9528,13 @@
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="29" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -9002,13 +9549,13 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>176</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -9364,7 +9911,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -9382,7 +9929,7 @@
     <row r="2" spans="1:13" s="6" customFormat="1" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -9401,19 +9948,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -9425,22 +9972,22 @@
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -9452,22 +9999,22 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>181</v>
-      </c>
       <c r="C5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -9772,15 +10319,15 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="5" customWidth="1"/>
@@ -9801,7 +10348,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -9823,7 +10370,7 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
@@ -9842,7 +10389,7 @@
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -9865,72 +10412,72 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="G5" s="43" t="s">
+      <c r="I5" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>195</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="H6" s="28">
         <v>56</v>
@@ -9941,16 +10488,16 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N6" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>199</v>
       </c>
       <c r="P6" s="20" t="s">
         <v>22</v>
@@ -9958,25 +10505,25 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="25">
         <v>995</v>
@@ -9987,16 +10534,16 @@
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>22</v>
@@ -10004,25 +10551,25 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="28">
         <v>996</v>
@@ -10033,16 +10580,16 @@
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P8" s="20" t="s">
         <v>22</v>
@@ -10050,25 +10597,25 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H9" s="25">
         <v>999</v>
@@ -10079,16 +10626,16 @@
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P9" s="24" t="s">
         <v>22</v>
@@ -10096,7 +10643,7 @@
     </row>
     <row r="12" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -10119,72 +10666,72 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="G13" s="43" t="s">
+      <c r="I13" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="28">
         <v>1</v>
@@ -10195,14 +10742,14 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="N14" s="44"/>
       <c r="O14" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P14" s="20" t="s">
         <v>22</v>
@@ -10210,25 +10757,25 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H15" s="25">
         <v>64</v>
@@ -10239,16 +10786,16 @@
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M15" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M15" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N15" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>22</v>
@@ -10256,25 +10803,25 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H16" s="28">
         <v>80</v>
@@ -10285,16 +10832,16 @@
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N16" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P16" s="20" t="s">
         <v>22</v>
@@ -10302,25 +10849,25 @@
     </row>
     <row r="17" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="25">
         <v>87</v>
@@ -10331,14 +10878,14 @@
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P17" s="24" t="s">
         <v>22</v>
@@ -10346,25 +10893,25 @@
     </row>
     <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="28">
         <v>90</v>
@@ -10375,16 +10922,16 @@
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N18" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P18" s="20" t="s">
         <v>22</v>
@@ -10392,25 +10939,25 @@
     </row>
     <row r="19" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="25">
         <v>91</v>
@@ -10421,16 +10968,16 @@
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M19" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N19" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P19" s="24" t="s">
         <v>22</v>
@@ -10438,25 +10985,25 @@
     </row>
     <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H20" s="28">
         <v>110</v>
@@ -10467,16 +11014,16 @@
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N20" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P20" s="20" t="s">
         <v>22</v>
@@ -10484,25 +11031,25 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H21" s="25">
         <v>136</v>
@@ -10513,14 +11060,14 @@
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P21" s="24" t="s">
         <v>22</v>
@@ -10528,25 +11075,25 @@
     </row>
     <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H22" s="28">
         <v>168</v>
@@ -10557,16 +11104,16 @@
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N22" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P22" s="20" t="s">
         <v>22</v>
@@ -10574,25 +11121,25 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H23" s="25">
         <v>169</v>
@@ -10603,16 +11150,16 @@
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M23" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N23" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P23" s="24" t="s">
         <v>22</v>
@@ -10620,25 +11167,25 @@
     </row>
     <row r="24" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H24" s="28">
         <v>691</v>
@@ -10649,16 +11196,16 @@
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N24" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P24" s="20" t="s">
         <v>22</v>
@@ -10666,25 +11213,25 @@
     </row>
     <row r="25" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H25" s="25">
         <v>811</v>
@@ -10695,16 +11242,16 @@
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M25" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N25" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P25" s="24" t="s">
         <v>22</v>
@@ -10712,25 +11259,25 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H26" s="28">
         <v>812</v>
@@ -10741,16 +11288,16 @@
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N26" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P26" s="20" t="s">
         <v>22</v>
@@ -10758,25 +11305,25 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27" s="25">
         <v>997</v>
@@ -10787,16 +11334,16 @@
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M27" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N27" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P27" s="24" t="s">
         <v>22</v>
@@ -10804,25 +11351,25 @@
     </row>
     <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H28" s="28">
         <v>998</v>
@@ -10833,16 +11380,16 @@
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N28" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P28" s="20" t="s">
         <v>22</v>
@@ -10850,25 +11397,25 @@
     </row>
     <row r="29" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H29" s="25">
         <v>3001</v>
@@ -10879,16 +11426,16 @@
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M29" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N29" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P29" s="24" t="s">
         <v>22</v>
@@ -10896,25 +11443,25 @@
     </row>
     <row r="30" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H30" s="28">
         <v>3003</v>
@@ -10925,14 +11472,14 @@
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P30" s="20" t="s">
         <v>22</v>
@@ -10940,25 +11487,25 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H31" s="25">
         <v>3004</v>
@@ -10969,16 +11516,16 @@
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M31" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M31" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N31" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P31" s="24" t="s">
         <v>22</v>
@@ -10986,25 +11533,25 @@
     </row>
     <row r="32" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H32" s="28">
         <v>3006</v>
@@ -11015,14 +11562,14 @@
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="N32" s="44"/>
       <c r="O32" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P32" s="20" t="s">
         <v>22</v>
@@ -11030,25 +11577,25 @@
     </row>
     <row r="33" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H33" s="25">
         <v>3007</v>
@@ -11059,14 +11606,14 @@
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M33" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="N33" s="24"/>
       <c r="O33" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P33" s="24" t="s">
         <v>22</v>
@@ -11074,25 +11621,25 @@
     </row>
     <row r="34" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34" s="28">
         <v>3011</v>
@@ -11103,14 +11650,14 @@
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M34" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="N34" s="44"/>
       <c r="O34" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P34" s="20" t="s">
         <v>22</v>
@@ -11118,25 +11665,25 @@
     </row>
     <row r="35" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H35" s="25">
         <v>3019</v>
@@ -11147,14 +11694,14 @@
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M35" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="N35" s="24"/>
       <c r="O35" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P35" s="24" t="s">
         <v>22</v>
@@ -11162,25 +11709,25 @@
     </row>
     <row r="36" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H36" s="28">
         <v>3103</v>
@@ -11191,16 +11738,16 @@
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M36" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M36" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N36" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P36" s="20" t="s">
         <v>22</v>
@@ -11208,25 +11755,25 @@
     </row>
     <row r="37" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H37" s="25">
         <v>3910</v>
@@ -11237,16 +11784,16 @@
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M37" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M37" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N37" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P37" s="24" t="s">
         <v>22</v>
@@ -11254,25 +11801,25 @@
     </row>
     <row r="38" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H38" s="28">
         <v>3960</v>
@@ -11283,16 +11830,16 @@
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M38" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M38" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N38" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P38" s="20" t="s">
         <v>22</v>
@@ -11300,25 +11847,25 @@
     </row>
     <row r="39" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H39" s="25">
         <v>3961</v>
@@ -11329,16 +11876,16 @@
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M39" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M39" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N39" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P39" s="24" t="s">
         <v>22</v>
@@ -11346,25 +11893,25 @@
     </row>
     <row r="40" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H40" s="28">
         <v>3962</v>
@@ -11375,16 +11922,16 @@
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M40" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M40" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N40" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P40" s="20" t="s">
         <v>22</v>
@@ -11392,25 +11939,25 @@
     </row>
     <row r="41" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H41" s="25">
         <v>3963</v>
@@ -11421,16 +11968,16 @@
       </c>
       <c r="K41" s="24"/>
       <c r="L41" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M41" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M41" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N41" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P41" s="24" t="s">
         <v>22</v>
@@ -11438,25 +11985,25 @@
     </row>
     <row r="42" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H42" s="28">
         <v>3964</v>
@@ -11467,16 +12014,16 @@
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M42" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M42" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N42" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P42" s="20" t="s">
         <v>22</v>
@@ -11484,25 +12031,25 @@
     </row>
     <row r="43" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H43" s="25">
         <v>3965</v>
@@ -11513,16 +12060,16 @@
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M43" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N43" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P43" s="24" t="s">
         <v>22</v>
@@ -11530,25 +12077,25 @@
     </row>
     <row r="44" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H44" s="28">
         <v>3966</v>
@@ -11559,16 +12106,16 @@
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M44" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M44" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N44" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P44" s="20" t="s">
         <v>22</v>
@@ -11576,25 +12123,25 @@
     </row>
     <row r="45" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H45" s="25">
         <v>3967</v>
@@ -11605,16 +12152,16 @@
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M45" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M45" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N45" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P45" s="24" t="s">
         <v>22</v>
@@ -11622,42 +12169,42 @@
     </row>
     <row r="46" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F46" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>299</v>
       </c>
       <c r="H46" s="28">
         <v>201</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M46" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M46" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N46" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O46" s="20"/>
       <c r="P46" s="20" t="s">
@@ -11666,42 +12213,42 @@
     </row>
     <row r="47" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F47" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="G47" s="30" t="s">
         <v>303</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>304</v>
       </c>
       <c r="H47" s="25">
         <v>202</v>
       </c>
       <c r="I47" s="25"/>
       <c r="J47" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K47" s="24"/>
       <c r="L47" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M47" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M47" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N47" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O47" s="24"/>
       <c r="P47" s="24" t="s">
@@ -11710,42 +12257,42 @@
     </row>
     <row r="48" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F48" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>307</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>308</v>
       </c>
       <c r="H48" s="28">
         <v>203</v>
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M48" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M48" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N48" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O48" s="20"/>
       <c r="P48" s="20" t="s">
@@ -11754,42 +12301,42 @@
     </row>
     <row r="49" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H49" s="25">
         <v>204</v>
       </c>
       <c r="I49" s="25"/>
       <c r="J49" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M49" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M49" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N49" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="24" t="s">
@@ -11798,42 +12345,42 @@
     </row>
     <row r="50" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H50" s="28">
         <v>205</v>
       </c>
       <c r="I50" s="28"/>
       <c r="J50" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M50" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N50" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O50" s="20"/>
       <c r="P50" s="20" t="s">
@@ -11842,42 +12389,42 @@
     </row>
     <row r="51" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H51" s="25">
         <v>206</v>
       </c>
       <c r="I51" s="25"/>
       <c r="J51" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M51" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="M51" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="N51" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O51" s="24"/>
       <c r="P51" s="24" t="s">
@@ -11886,42 +12433,42 @@
     </row>
     <row r="52" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H52" s="28">
         <v>207</v>
       </c>
       <c r="I52" s="28"/>
       <c r="J52" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M52" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="M52" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="N52" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O52" s="20"/>
       <c r="P52" s="20" t="s">
@@ -12243,8 +12790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B44EF0-F7C8-4818-ABD1-94AFD5852AB2}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" activeCellId="1" sqref="A3:F3 A15:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="A1:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12270,7 +12817,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -12288,7 +12835,7 @@
     <row r="2" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -12307,16 +12854,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>508</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>34</v>
@@ -12331,19 +12878,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -12461,7 +13008,7 @@
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -12479,7 +13026,7 @@
     <row r="14" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -12498,22 +13045,22 @@
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>511</v>
-      </c>
       <c r="E15" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -12524,7 +13071,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>6</v>
@@ -12533,10 +13080,10 @@
         <v>201</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>

--- a/Input-Spreadsheet.xlsx
+++ b/Input-Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563EF84-6178-4097-B564-D777FDBC6DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11900E2B-AA83-41C1-977E-7E0DFE1339D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="610">
   <si>
     <t>Type</t>
   </si>
@@ -771,31 +771,6 @@
     <t xml:space="preserve"> Create Tenants</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> We recommend that the Tenant Name be between 1 and 10 characters, (Many CLI Commands have a 10 Character limit on Display Fields), but it can be up to 64 alphanumeric characters + underscore "_" or dash "-". </t>
-    </r>
-  </si>
-  <si>
     <t>add_tenant</t>
   </si>
   <si>
@@ -811,36 +786,6 @@
     <t>Example DMZ Tenant</t>
   </si>
   <si>
-    <t>Create VRFs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**Important Note**</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - We Recommend Putting the VRF in the Common Tenant, for routing between Tenants (if ever desired)
-                                       It will save you time from having to create import/export route control policies.
-                                       Many Integrations also need the VRF in the Common Tenant.  Same Recommendation as Tenant on 10 Character Limit for CLI Display</t>
-    </r>
-  </si>
-  <si>
     <t>VRF</t>
   </si>
   <si>
@@ -851,9 +796,6 @@
   </si>
   <si>
     <t>prod_vrf</t>
-  </si>
-  <si>
-    <t>Product Tenant</t>
   </si>
   <si>
     <t>enforced</t>
@@ -1347,9 +1289,6 @@
     <t>inherit_Auto</t>
   </si>
   <si>
-    <t>BPDU_fg</t>
-  </si>
-  <si>
     <t>r143b-fp01-Eth1/1</t>
   </si>
   <si>
@@ -1659,9 +1598,6 @@
     <t>BreakOut_Name</t>
   </si>
   <si>
-    <t>Policy_Group_Name</t>
-  </si>
-  <si>
     <t>CDP</t>
   </si>
   <si>
@@ -1708,15 +1644,6 @@
   </si>
   <si>
     <t>AS_Number</t>
-  </si>
-  <si>
-    <t>Tenant_Name</t>
-  </si>
-  <si>
-    <t>Tenant_Description</t>
-  </si>
-  <si>
-    <t>VRF_Description</t>
   </si>
   <si>
     <t>Policy_Control_Enforcement</t>
@@ -2264,18 +2191,6 @@
     <t>msite_vl-pool</t>
   </si>
   <si>
-    <t>VLAN_Gp1</t>
-  </si>
-  <si>
-    <t>VLAN_Gp2</t>
-  </si>
-  <si>
-    <t>vgp1_Allocation</t>
-  </si>
-  <si>
-    <t>vgp2_Allocation</t>
-  </si>
-  <si>
     <t>Allocation_Mode</t>
   </si>
   <si>
@@ -2486,6 +2401,172 @@
   </si>
   <si>
     <t>Define Modules (Only Needed for Modular Spines)</t>
+  </si>
+  <si>
+    <t>BPDU_no_ft_or_gd</t>
+  </si>
+  <si>
+    <t>BPDU_ft_and_gd</t>
+  </si>
+  <si>
+    <t>VLAN_Grp1</t>
+  </si>
+  <si>
+    <t>VLAN_Grp2</t>
+  </si>
+  <si>
+    <t>VGRP1_Allocation</t>
+  </si>
+  <si>
+    <t>VGRP2_Allocation</t>
+  </si>
+  <si>
+    <t>mgmt</t>
+  </si>
+  <si>
+    <t>inb</t>
+  </si>
+  <si>
+    <t>infra</t>
+  </si>
+  <si>
+    <t>Product VRF</t>
+  </si>
+  <si>
+    <t>DMZ VRF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**Important Notes**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep your names simple.  It will save you time when troubleshooting.  Most CLI commands have a 10 character limit on the display field.  So if your VRF Name is longer than 10 characters it will wrap and be harder to read.
+                                       - We Recommend Putting the VRFs in the Common Tenant, to simplify routing between Tenants (if ever desired now or in the future), it will save you time from having to create import/export route control policies.
+                                       - Many Integrations also need the VRF in the Common Tenant, like Kubernetes CNI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enforce_Direction</t>
+  </si>
+  <si>
+    <t>BD_Enforcement</t>
+  </si>
+  <si>
+    <t>DP_Learning</t>
+  </si>
+  <si>
+    <t>Enforce_Type</t>
+  </si>
+  <si>
+    <t>Policy_Enforce</t>
+  </si>
+  <si>
+    <t>Monitor_Policy</t>
+  </si>
+  <si>
+    <t>EP_Retention</t>
+  </si>
+  <si>
+    <t>VRF_Valid_Policy</t>
+  </si>
+  <si>
+    <t>Create VRF's</t>
+  </si>
+  <si>
+    <t>Create SNMP Contexts</t>
+  </si>
+  <si>
+    <t>snmp_ctx</t>
+  </si>
+  <si>
+    <t>SNMP_Ctx_Description</t>
+  </si>
+  <si>
+    <t>SNMP_Ctx_Community</t>
+  </si>
+  <si>
+    <t>ingress</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep your names simple.  It will save you time when troubleshooting; Between 1 and 10 characters, (Many CLI Commands have a 10 Character limit on Display Fields).
+                 - Tenant: Name can be up to 64 alphanumeric characters + underscore "_" or dash "-".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**Important Notes**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep your names simple.  It will save you time when troubleshooting.  Most CLI commands have a 10 character limit on the display field.  So if your VRF Name is longer than 10 characters it will wrap and be harder to read.
+                                       - We Recommend Putting the VRFs in the Common Tenant, to simplify routing between VRFs (if ever desired now or in the future), it will save you time from having to create import/export route control policies.
+                                       - Many Integrations also need the VRF in the Common Tenant, like Kubernetes CNI.
+                                       - VRF_Description: Optional.  Currently not supported by the ACI Provider.  Will Add when it is fixed
+                                       - BD_Enforcement: Only Allow Endpoints to ping their Bridge Domain Gateways.. Block others.  default is no
+                                       - DP_Learning: Enable or Disable Dataplane Endpoint Learning.  Default is enabled.  Only disable in corner cases for hosts that don't follow basic rules: like multiple mac addresses sharing the same ip address.
+                                       - Policy_Enforcement: Enable or Disable Whitelist filtering.  The default is enforced
+                                       - Enforcement_Type: Choose Preferred Group if you want to enable enforcement but just permit all traffic at this time in the VRF
+                                       - Enforcement_Type: Choose vzAny to apply Contracts at the VRF Level.  This script will add the common:default contract to Provider and Consumer when chosen
+                                       - Enforcement_Type: Choose Contract if you want to apply filtering at the EPG Level
+                                       - Enforcement_Direction: Apply filtering on ingress or egress. default is ingress
+                                       - Monitoring_Policy: Monitoring Policy - use "default" for "uni/tn-common/monepg-default".  If not default, you must use the full qualification as shown.  Only Modify if you have an explicit policy instead.
+                                       - EP_Retention: Endpoint Retention Policy - use "default" for "uni/tn-common/epRPol-default".  If not default, you must use the full qualification as shown.  Only Modify if you have an explicit policy instead.
+                                       - VRF_Valid_Policy: VRF Validation Policy - use "default" for "uni/tn-common/vrfvalidationpol-default".  If not default, you must use the full qualification as shown.  Only Modify if you have an explicit policy instead.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3250,7 +3331,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyNumberFormat="1"/>
@@ -3392,6 +3473,12 @@
     <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="23" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="45" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3404,16 +3491,16 @@
     <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="34" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3425,11 +3512,11 @@
     <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="45" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3904,28 +3991,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3959,48 +4046,48 @@
       <c r="M3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -4106,54 +4193,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="A1" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="B2" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>33</v>
@@ -4168,19 +4255,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -4297,60 +4384,60 @@
       <c r="M11" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
+      <c r="A13" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
+      <c r="B14" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4361,7 +4448,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>5</v>
@@ -4370,10 +4457,10 @@
         <v>201</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -4737,7 +4824,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -4753,312 +4840,312 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H4" s="25">
         <v>1</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H5" s="28">
         <v>995</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H6" s="25">
         <v>995</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H7" s="28">
         <v>1</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H8" s="25">
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H9" s="28">
         <v>187</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C10" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>514</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>523</v>
       </c>
       <c r="H10" s="25">
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H11" s="28">
         <v>1</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H12" s="25">
         <v>1</v>
@@ -5069,118 +5156,118 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H13" s="28">
         <v>1</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>357</v>
-      </c>
       <c r="G14" s="24" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H14" s="25">
         <v>1</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H15" s="28">
         <v>1</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H16" s="25">
         <v>1</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -5204,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298A81F1-38AC-4BF5-848F-F28E1CADD09C}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5231,28 +5318,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5286,45 +5373,45 @@
       <c r="M3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
@@ -5383,21 +5470,21 @@
       <c r="M9" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -5407,7 +5494,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5422,7 +5509,7 @@
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>27</v>
@@ -5443,7 +5530,7 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>102</v>
@@ -5463,34 +5550,34 @@
       <c r="M14" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -5549,78 +5636,78 @@
       <c r="M19" s="24"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="E23" s="40" t="s">
+      <c r="J23" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="K23" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="L23" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5649,7 +5736,7 @@
         <v>118</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>119</v>
@@ -5666,34 +5753,34 @@
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -5752,45 +5839,45 @@
       <c r="M29" s="24"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="50" t="s">
-        <v>489</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
+      <c r="B32" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
     </row>
     <row r="33" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>33</v>
@@ -5850,31 +5937,31 @@
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -5912,60 +5999,60 @@
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
     </row>
     <row r="43" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
     </row>
     <row r="44" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -6034,57 +6121,57 @@
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
     </row>
     <row r="49" spans="1:26" s="3" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
-      <c r="B49" s="50" t="s">
-        <v>472</v>
-      </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
+      <c r="B49" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
     </row>
     <row r="50" spans="1:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -6175,21 +6262,21 @@
     </row>
     <row r="54" spans="1:26" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
+      <c r="A55" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
       <c r="N55" s="47"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -6206,20 +6293,20 @@
     </row>
     <row r="56" spans="1:26" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
-      <c r="B56" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
+      <c r="B56" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
       <c r="N56" s="48"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -6238,48 +6325,48 @@
         <v>0</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="I57" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>484</v>
-      </c>
       <c r="K57" s="8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>68</v>
@@ -6288,7 +6375,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>56</v>
@@ -6322,37 +6409,37 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
+      <c r="A60" s="51" t="s">
+        <v>467</v>
+      </c>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
     </row>
     <row r="61" spans="1:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>53</v>
@@ -6369,7 +6456,7 @@
     </row>
     <row r="62" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B62" s="46" t="s">
         <v>68</v>
@@ -6398,13 +6485,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A11:M11"/>
     <mergeCell ref="A26:M26"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A31:M31"/>
@@ -6416,6 +6496,13 @@
     <mergeCell ref="B43:M43"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="B49:M49"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <dataValidations count="27">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 D18:D19 D28:D29 G45:G46 D24 E62" xr:uid="{3AE7F0E0-8CE0-44F9-A53F-86B9AF78CE0A}">
@@ -6519,7 +6606,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6528,48 +6615,49 @@
     <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="5" customWidth="1"/>
-    <col min="8" max="11" width="14" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19" style="5" customWidth="1"/>
+    <col min="8" max="10" width="14" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34" style="5" customWidth="1"/>
     <col min="13" max="13" width="36.28515625" style="5" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>536</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="A1" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="50" t="s">
-        <v>572</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -6579,19 +6667,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -6602,19 +6690,19 @@
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D4" s="28">
         <v>1</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="20"/>
@@ -6627,19 +6715,19 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24"/>
@@ -6652,19 +6740,19 @@
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D6" s="28">
         <v>100</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="20"/>
@@ -6677,19 +6765,19 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D7" s="25">
         <v>101</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="24"/>
@@ -6702,19 +6790,19 @@
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D8" s="28">
         <v>4</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="20"/>
@@ -6727,7 +6815,7 @@
     </row>
     <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -6745,7 +6833,7 @@
     <row r="11" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="56" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -6764,34 +6852,34 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>33</v>
@@ -6800,25 +6888,25 @@
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F13" s="20">
         <v>1500</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>22</v>
@@ -6830,10 +6918,10 @@
         <v>22</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>21</v>
+        <v>582</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="M13" s="20"/>
     </row>
@@ -6850,11 +6938,11 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="61"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -6872,7 +6960,7 @@
     <row r="17" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="56" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
@@ -6891,34 +6979,34 @@
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>33</v>
@@ -6927,25 +7015,25 @@
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F19" s="20">
         <v>1500</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>22</v>
@@ -6957,10 +7045,10 @@
         <v>22</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="M19" s="20"/>
     </row>
@@ -6977,11 +7065,11 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="61"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -6999,7 +7087,7 @@
     <row r="23" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="56" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
@@ -7018,34 +7106,34 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>33</v>
@@ -7054,25 +7142,25 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F25" s="20">
         <v>1500</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>22</v>
@@ -7084,34 +7172,34 @@
         <v>22</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F26" s="24">
         <v>9000</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>22</v>
@@ -7123,34 +7211,34 @@
         <v>22</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="M26" s="61"/>
+        <v>339</v>
+      </c>
+      <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F27" s="20">
         <v>9000</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>22</v>
@@ -7162,34 +7250,34 @@
         <v>22</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F28" s="24">
         <v>9000</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>22</v>
@@ -7201,34 +7289,34 @@
         <v>22</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F29" s="20">
         <v>9000</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>22</v>
@@ -7240,34 +7328,34 @@
         <v>22</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F30" s="24">
         <v>9000</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>22</v>
@@ -7279,34 +7367,34 @@
         <v>22</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F31" s="20">
         <v>9000</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>22</v>
@@ -7318,34 +7406,34 @@
         <v>22</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F32" s="24">
         <v>9000</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>22</v>
@@ -7357,34 +7445,34 @@
         <v>22</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F33" s="20">
         <v>9000</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>22</v>
@@ -7396,10 +7484,10 @@
         <v>22</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M33" s="20"/>
     </row>
@@ -7420,14 +7508,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="B17:M17"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="B23:M23"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="B11:M11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="LACP Policy" error="Please Select a Valid Value" sqref="E25:E34 E19:E20" xr:uid="{7F05D07B-9005-4020-BEDC-651531E90C9A}">
@@ -7437,7 +7525,7 @@
       <formula1>"access_aep,inband_aep,l3out_aep,msite_aep"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="BPDU" error="Please Select BPDU_fg, BPDU_ft, BPDU_gd, no, or yes" sqref="K13:K14 K19:K20 K25:K34" xr:uid="{74C6CC98-EC1B-49A5-B6F2-0FC03D4D2B20}">
-      <formula1>"BPDU_fg,BPDU_ft,BPDU_gd,no,yes"</formula1>
+      <formula1>"BPDU_ft_and_gd,BPDU_ft,BPDU_gd,BPDU_no_ft_or_gd"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please Select yes or no" sqref="H13:J14 H19:J20 H25:J34" xr:uid="{7208DF1D-8F27-488B-857A-510A5C3F9C8F}">
       <formula1>"no,yes"</formula1>
@@ -7473,7 +7561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -7493,48 +7581,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="A1" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="50" t="s">
-        <v>563</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -7549,13 +7637,13 @@
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B4" s="18">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -7569,38 +7657,38 @@
       <c r="M4" s="20"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="50" t="s">
-        <v>534</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="B7" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -7610,16 +7698,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>410</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -7747,38 +7835,38 @@
       <c r="M15" s="20"/>
     </row>
     <row r="17" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="1:13" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -7791,31 +7879,31 @@
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="M19" s="8"/>
     </row>
@@ -8102,21 +8190,21 @@
       <c r="M33" s="24"/>
     </row>
     <row r="35" spans="1:17" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>594</v>
-      </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
+      <c r="A35" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
@@ -8124,20 +8212,20 @@
     </row>
     <row r="36" spans="1:17" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
+      <c r="B36" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
@@ -8148,52 +8236,52 @@
         <v>0</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="J37" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="K37" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="L37" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="M37" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="O37" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="P37" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="Q37" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8321,54 +8409,54 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="45" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
     </row>
     <row r="47" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -8496,7 +8584,7 @@
     </row>
     <row r="56" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -8513,20 +8601,20 @@
     </row>
     <row r="57" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
-      <c r="B57" s="53" t="s">
-        <v>592</v>
-      </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
+      <c r="B57" s="57" t="s">
+        <v>579</v>
+      </c>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
     </row>
     <row r="58" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -8536,7 +8624,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>52</v>
@@ -8560,7 +8648,7 @@
         <v>201</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -8581,7 +8669,7 @@
         <v>201</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -8602,7 +8690,7 @@
         <v>202</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -8623,7 +8711,7 @@
         <v>202</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -8667,7 +8755,7 @@
     </row>
     <row r="66" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -8685,7 +8773,7 @@
     <row r="67" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="56" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C67" s="56"/>
       <c r="D67" s="56"/>
@@ -8704,13 +8792,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -8728,10 +8816,10 @@
         <v>5</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -8749,10 +8837,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
@@ -8770,10 +8858,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -8791,10 +8879,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
@@ -8838,20 +8926,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A66:M66"/>
-    <mergeCell ref="B67:M67"/>
-    <mergeCell ref="A56:M56"/>
-    <mergeCell ref="B57:M57"/>
-    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B7:M7"/>
     <mergeCell ref="A35:M35"/>
     <mergeCell ref="B36:M36"/>
     <mergeCell ref="A17:M17"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="A66:M66"/>
+    <mergeCell ref="B67:M67"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="B57:M57"/>
+    <mergeCell ref="B46:M46"/>
   </mergeCells>
   <conditionalFormatting sqref="F38:P38">
     <cfRule type="expression" dxfId="11" priority="8">
@@ -8977,39 +9065,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="54" t="s">
-        <v>499</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="58" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9017,40 +9105,40 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>138</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>140</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>33</v>
@@ -9079,7 +9167,7 @@
         <v>139</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="I4" s="28">
         <v>22</v>
@@ -9098,38 +9186,38 @@
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:14" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -9139,28 +9227,28 @@
         <v>58</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -9238,38 +9326,38 @@
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:14" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -9279,28 +9367,28 @@
         <v>58</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -9377,38 +9465,38 @@
       <c r="M17" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
-      <c r="B20" s="57" t="s">
-        <v>502</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="B20" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -9421,7 +9509,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -9478,118 +9566,118 @@
       <c r="M23" s="24"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
+      <c r="A25" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
     </row>
     <row r="26" spans="1:13" ht="197.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="50" t="s">
-        <v>553</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
+      <c r="B26" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="I27" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="J27" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>554</v>
-      </c>
       <c r="K27" s="8" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D28" s="60">
+        <v>539</v>
+      </c>
+      <c r="D28" s="49">
         <v>48</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="49">
         <v>2</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="49">
         <v>5</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="H28" s="60">
+        <v>546</v>
+      </c>
+      <c r="H28" s="49">
         <v>5</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="49">
         <v>5</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="49">
         <v>60</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="49">
         <v>600</v>
       </c>
-      <c r="L28" s="60">
+      <c r="L28" s="49">
         <v>24</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="49">
         <v>1200</v>
       </c>
     </row>
@@ -9740,7 +9828,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9756,48 +9844,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="B2" s="57" t="s">
+        <v>608</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>451</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -9812,13 +9900,13 @@
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>170</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -9833,13 +9921,13 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -10173,20 +10261,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805BF71-948B-48DC-A5E8-1F6702F887A8}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
     <col min="2" max="3" width="17.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="19.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="5" customWidth="1"/>
+    <col min="10" max="12" width="20.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="12.140625" style="5" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" style="5" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" style="5" customWidth="1"/>
@@ -10194,129 +10286,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="243" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="57" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>452</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>453</v>
+        <v>595</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+        <v>596</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>601</v>
+      </c>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="H4" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="I4" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="H5" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="I5" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -10328,10 +10456,10 @@
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -10343,10 +10471,10 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -10358,10 +10486,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
@@ -10373,10 +10501,10 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -10388,10 +10516,10 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
@@ -10403,10 +10531,10 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -10418,10 +10546,10 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
@@ -10433,10 +10561,10 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -10448,10 +10576,10 @@
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
@@ -10463,10 +10591,10 @@
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -10478,83 +10606,88 @@
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="61" t="s">
+        <v>603</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" ht="59.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="57" t="s">
+        <v>593</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
@@ -10563,13 +10696,19 @@
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -10578,20 +10717,326 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
     </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="B20:M20"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F23" xr:uid="{BC11C8B3-7FCE-4246-A479-7A5FCCF35645}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H17" xr:uid="{BC11C8B3-7FCE-4246-A479-7A5FCCF35645}">
       <formula1>"contract,preferred_group,vzAny"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E23" xr:uid="{4E3FFFFC-8769-4D19-8CEC-80AE18B45696}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G17" xr:uid="{4E3FFFFC-8769-4D19-8CEC-80AE18B45696}">
       <formula1>"enforced,unenforced"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Please Select a valid value from the drop down" sqref="A4:A23" xr:uid="{B2902F6C-6C6D-4049-AD21-A8F0EEEB4BC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Please Select a valid value from the drop down" sqref="A4:A17" xr:uid="{B2902F6C-6C6D-4049-AD21-A8F0EEEB4BC3}">
       <formula1>"add_vrf"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Please Select a valid value from the drop down" sqref="A22:A41" xr:uid="{EA68E1F0-F958-47CD-9577-F3DE12719EC8}">
+      <formula1>"snmp_ctx"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E17" xr:uid="{4769C0CA-D380-41A5-ADBE-35B462613550}">
+      <formula1>"no,yes"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F17" xr:uid="{3C9EFE81-D2BA-41E5-8B3D-6135BDDA918D}">
+      <formula1>"enabled,disabled"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I17" xr:uid="{CBCCBD14-291B-420B-8890-B6E24400B572}">
+      <formula1>"egress,ingress"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10631,137 +11076,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="A1" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="A4" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
     </row>
     <row r="5" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H6" s="28">
         <v>56</v>
@@ -10772,16 +11217,16 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="N6" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P6" s="20" t="s">
         <v>21</v>
@@ -10789,25 +11234,25 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H7" s="25">
         <v>995</v>
@@ -10818,16 +11263,16 @@
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="N7" s="24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>21</v>
@@ -10835,25 +11280,25 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H8" s="28">
         <v>996</v>
@@ -10864,16 +11309,16 @@
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="N8" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="20" t="s">
         <v>21</v>
@@ -10881,25 +11326,25 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H9" s="25">
         <v>999</v>
@@ -10910,112 +11355,112 @@
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="M9" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="N9" s="24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P9" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
+      <c r="A12" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L13" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H14" s="28">
         <v>1</v>
@@ -11026,14 +11471,14 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N14" s="44"/>
       <c r="O14" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P14" s="20" t="s">
         <v>21</v>
@@ -11041,25 +11486,25 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H15" s="25">
         <v>64</v>
@@ -11070,16 +11515,16 @@
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>21</v>
@@ -11087,25 +11532,25 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H16" s="28">
         <v>80</v>
@@ -11116,16 +11561,16 @@
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P16" s="20" t="s">
         <v>21</v>
@@ -11133,25 +11578,25 @@
     </row>
     <row r="17" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H17" s="25">
         <v>87</v>
@@ -11162,14 +11607,14 @@
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P17" s="24" t="s">
         <v>21</v>
@@ -11177,25 +11622,25 @@
     </row>
     <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H18" s="28">
         <v>90</v>
@@ -11206,16 +11651,16 @@
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P18" s="20" t="s">
         <v>21</v>
@@ -11223,25 +11668,25 @@
     </row>
     <row r="19" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H19" s="25">
         <v>91</v>
@@ -11252,16 +11697,16 @@
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P19" s="24" t="s">
         <v>21</v>
@@ -11269,25 +11714,25 @@
     </row>
     <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H20" s="28">
         <v>110</v>
@@ -11298,16 +11743,16 @@
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P20" s="20" t="s">
         <v>21</v>
@@ -11315,25 +11760,25 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H21" s="25">
         <v>136</v>
@@ -11344,14 +11789,14 @@
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P21" s="24" t="s">
         <v>21</v>
@@ -11359,25 +11804,25 @@
     </row>
     <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H22" s="28">
         <v>168</v>
@@ -11388,16 +11833,16 @@
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P22" s="20" t="s">
         <v>21</v>
@@ -11405,25 +11850,25 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H23" s="25">
         <v>169</v>
@@ -11434,16 +11879,16 @@
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P23" s="24" t="s">
         <v>21</v>
@@ -11451,25 +11896,25 @@
     </row>
     <row r="24" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H24" s="28">
         <v>691</v>
@@ -11480,16 +11925,16 @@
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P24" s="20" t="s">
         <v>21</v>
@@ -11497,25 +11942,25 @@
     </row>
     <row r="25" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H25" s="25">
         <v>811</v>
@@ -11526,16 +11971,16 @@
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P25" s="24" t="s">
         <v>21</v>
@@ -11543,25 +11988,25 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H26" s="28">
         <v>812</v>
@@ -11572,16 +12017,16 @@
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P26" s="20" t="s">
         <v>21</v>
@@ -11589,25 +12034,25 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H27" s="25">
         <v>997</v>
@@ -11618,16 +12063,16 @@
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P27" s="24" t="s">
         <v>21</v>
@@ -11635,25 +12080,25 @@
     </row>
     <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H28" s="28">
         <v>998</v>
@@ -11664,16 +12109,16 @@
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P28" s="20" t="s">
         <v>21</v>
@@ -11681,25 +12126,25 @@
     </row>
     <row r="29" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H29" s="25">
         <v>3001</v>
@@ -11710,16 +12155,16 @@
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P29" s="24" t="s">
         <v>21</v>
@@ -11727,25 +12172,25 @@
     </row>
     <row r="30" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H30" s="28">
         <v>3003</v>
@@ -11756,14 +12201,14 @@
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P30" s="20" t="s">
         <v>21</v>
@@ -11771,25 +12216,25 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H31" s="25">
         <v>3004</v>
@@ -11800,16 +12245,16 @@
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P31" s="24" t="s">
         <v>21</v>
@@ -11817,25 +12262,25 @@
     </row>
     <row r="32" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H32" s="28">
         <v>3006</v>
@@ -11846,14 +12291,14 @@
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N32" s="44"/>
       <c r="O32" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P32" s="20" t="s">
         <v>21</v>
@@ -11861,25 +12306,25 @@
     </row>
     <row r="33" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H33" s="25">
         <v>3007</v>
@@ -11890,14 +12335,14 @@
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N33" s="24"/>
       <c r="O33" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P33" s="24" t="s">
         <v>21</v>
@@ -11905,25 +12350,25 @@
     </row>
     <row r="34" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H34" s="28">
         <v>3011</v>
@@ -11934,14 +12379,14 @@
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N34" s="44"/>
       <c r="O34" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P34" s="20" t="s">
         <v>21</v>
@@ -11949,25 +12394,25 @@
     </row>
     <row r="35" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H35" s="25">
         <v>3019</v>
@@ -11978,14 +12423,14 @@
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N35" s="24"/>
       <c r="O35" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P35" s="24" t="s">
         <v>21</v>
@@ -11993,25 +12438,25 @@
     </row>
     <row r="36" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H36" s="28">
         <v>3103</v>
@@ -12022,16 +12467,16 @@
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P36" s="20" t="s">
         <v>21</v>
@@ -12039,25 +12484,25 @@
     </row>
     <row r="37" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H37" s="25">
         <v>3910</v>
@@ -12068,16 +12513,16 @@
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P37" s="24" t="s">
         <v>21</v>
@@ -12085,25 +12530,25 @@
     </row>
     <row r="38" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H38" s="28">
         <v>3960</v>
@@ -12114,16 +12559,16 @@
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P38" s="20" t="s">
         <v>21</v>
@@ -12131,25 +12576,25 @@
     </row>
     <row r="39" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H39" s="25">
         <v>3961</v>
@@ -12160,16 +12605,16 @@
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P39" s="24" t="s">
         <v>21</v>
@@ -12177,25 +12622,25 @@
     </row>
     <row r="40" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H40" s="28">
         <v>3962</v>
@@ -12206,16 +12651,16 @@
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P40" s="20" t="s">
         <v>21</v>
@@ -12223,25 +12668,25 @@
     </row>
     <row r="41" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H41" s="25">
         <v>3963</v>
@@ -12252,16 +12697,16 @@
       </c>
       <c r="K41" s="24"/>
       <c r="L41" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P41" s="24" t="s">
         <v>21</v>
@@ -12269,25 +12714,25 @@
     </row>
     <row r="42" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H42" s="28">
         <v>3964</v>
@@ -12298,16 +12743,16 @@
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P42" s="20" t="s">
         <v>21</v>
@@ -12315,25 +12760,25 @@
     </row>
     <row r="43" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H43" s="25">
         <v>3965</v>
@@ -12344,16 +12789,16 @@
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P43" s="24" t="s">
         <v>21</v>
@@ -12361,25 +12806,25 @@
     </row>
     <row r="44" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H44" s="28">
         <v>3966</v>
@@ -12390,16 +12835,16 @@
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P44" s="20" t="s">
         <v>21</v>
@@ -12407,25 +12852,25 @@
     </row>
     <row r="45" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H45" s="25">
         <v>3967</v>
@@ -12436,16 +12881,16 @@
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P45" s="24" t="s">
         <v>21</v>
@@ -12453,42 +12898,42 @@
     </row>
     <row r="46" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H46" s="28">
         <v>201</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N46" s="44" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O46" s="20"/>
       <c r="P46" s="20" t="s">
@@ -12497,42 +12942,42 @@
     </row>
     <row r="47" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H47" s="25">
         <v>202</v>
       </c>
       <c r="I47" s="25"/>
       <c r="J47" s="24" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K47" s="24"/>
       <c r="L47" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N47" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O47" s="24"/>
       <c r="P47" s="24" t="s">
@@ -12541,42 +12986,42 @@
     </row>
     <row r="48" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H48" s="28">
         <v>203</v>
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N48" s="44" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O48" s="20"/>
       <c r="P48" s="20" t="s">
@@ -12585,42 +13030,42 @@
     </row>
     <row r="49" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H49" s="25">
         <v>204</v>
       </c>
       <c r="I49" s="25"/>
       <c r="J49" s="24" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="24" t="s">
@@ -12629,42 +13074,42 @@
     </row>
     <row r="50" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H50" s="28">
         <v>205</v>
       </c>
       <c r="I50" s="28"/>
       <c r="J50" s="20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N50" s="44" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O50" s="20"/>
       <c r="P50" s="20" t="s">
@@ -12673,42 +13118,42 @@
     </row>
     <row r="51" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H51" s="25">
         <v>206</v>
       </c>
       <c r="I51" s="25"/>
       <c r="J51" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M51" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N51" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O51" s="24"/>
       <c r="P51" s="24" t="s">
@@ -12717,42 +13162,42 @@
     </row>
     <row r="52" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H52" s="28">
         <v>207</v>
       </c>
       <c r="I52" s="28"/>
       <c r="J52" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N52" s="44" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O52" s="20"/>
       <c r="P52" s="20" t="s">
@@ -13100,54 +13545,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="A1" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="B2" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>33</v>
@@ -13162,19 +13607,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -13291,60 +13736,60 @@
       <c r="M11" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
+      <c r="A13" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
+      <c r="B14" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -13355,7 +13800,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>5</v>
@@ -13364,10 +13809,10 @@
         <v>201</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>

--- a/Input-Spreadsheet.xlsx
+++ b/Input-Spreadsheet.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11900E2B-AA83-41C1-977E-7E0DFE1339D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44279D5-F554-437A-995B-108106E4351C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="612">
   <si>
     <t>Type</t>
   </si>
@@ -1703,31 +1703,6 @@
     <t>domain</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notes:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The Privacy Key and Authorization Key must be 8 or more characters if used.  Privacy Key is Optional
-            The "Privacy Key" and "Authorization Key" Cells are Hidden</t>
-    </r>
-  </si>
-  <si>
     <t>Syslog Destination Group</t>
   </si>
   <si>
@@ -1881,54 +1856,6 @@
   </si>
   <si>
     <t>Domain_Order</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notes:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Don't Lock Yourself Out. This is probably safer to configure outside of automation. Use at your own risk
-            The Login Domain_Type local does not require a Login Domain, it can be blank								
-            If left "local" then for Console/SSH Sessions to use another domain you would input your credentials as: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>apic:{login_domain}\&lt;username&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> i.e. apic:ISE\cisco_user</t>
-    </r>
   </si>
   <si>
     <t>leaf101 Interface Selectors</t>
@@ -2146,19 +2073,7 @@
     <t>intf_selector</t>
   </si>
   <si>
-    <t>access_vl-pool</t>
-  </si>
-  <si>
     <t>static</t>
-  </si>
-  <si>
-    <t>dynamic_vl-pool</t>
-  </si>
-  <si>
-    <t>inband_vl-pool</t>
-  </si>
-  <si>
-    <t>l3out_vl-pool</t>
   </si>
   <si>
     <t>dynamic</t>
@@ -2186,9 +2101,6 @@
       </rPr>
       <t xml:space="preserve"> Remember to Include the IP/Mask of the Gateway v4 Address… Also Make sure you have added the Inband VLAN to the inband_vl-pool on the previous Worksheet</t>
     </r>
-  </si>
-  <si>
-    <t>msite_vl-pool</t>
   </si>
   <si>
     <t>Allocation_Mode</t>
@@ -2250,12 +2162,6 @@
     <t>Access Test Policy Group</t>
   </si>
   <si>
-    <t>Create Port-Channel Policy Groups</t>
-  </si>
-  <si>
-    <t>Create VPC Policy Groups</t>
-  </si>
-  <si>
     <t>port-channel</t>
   </si>
   <si>
@@ -2288,58 +2194,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notes:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The Script Automatically creates 2 Access Policy Groups: inband_apg for the APICs and access_host_apg as a generic access interface policy.  They don't need to be added below
-            Any Cell that contains a Drop down, means that they are pre-configured by the Script.  Only the AAEP will allow you to not select the drop down.
-            Policy Group Name, MTU and Description are all Free Form.  Description is the only field that is optional.  We Recommend an Access Port Policy Group end with _pcg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notes:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The Script Automatically creates 2 Access Policy Groups: inband_apg for the APICs and access_host_apg as a generic access interface policy.  They don't need to be added below
-            Any Cell that contains a Drop down, means that they are pre-configured by the Script.  Only the AAEP will allow you to not select the drop down.
-            Policy Group Name, MTU and Description are all Free Form.  Description is the only field that is optional.  We Recommend an Access Port Policy Group end with _vpc</t>
-    </r>
-  </si>
-  <si>
     <t>Inband Management</t>
   </si>
   <si>
@@ -2430,39 +2284,9 @@
     <t>infra</t>
   </si>
   <si>
-    <t>Product VRF</t>
-  </si>
-  <si>
     <t>DMZ VRF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**Important Notes**</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Keep your names simple.  It will save you time when troubleshooting.  Most CLI commands have a 10 character limit on the display field.  So if your VRF Name is longer than 10 characters it will wrap and be harder to read.
-                                       - We Recommend Putting the VRFs in the Common Tenant, to simplify routing between Tenants (if ever desired now or in the future), it will save you time from having to create import/export route control policies.
-                                       - Many Integrations also need the VRF in the Common Tenant, like Kubernetes CNI.</t>
-    </r>
-  </si>
-  <si>
     <t>Enforce_Direction</t>
   </si>
   <si>
@@ -2488,18 +2312,6 @@
   </si>
   <si>
     <t>Create VRF's</t>
-  </si>
-  <si>
-    <t>Create SNMP Contexts</t>
-  </si>
-  <si>
-    <t>snmp_ctx</t>
-  </si>
-  <si>
-    <t>SNMP_Ctx_Description</t>
-  </si>
-  <si>
-    <t>SNMP_Ctx_Community</t>
   </si>
   <si>
     <t>ingress</t>
@@ -2531,6 +2343,39 @@
     </r>
   </si>
   <si>
+    <t>access_vlp</t>
+  </si>
+  <si>
+    <t>dynamic_vlp</t>
+  </si>
+  <si>
+    <t>inband_vlp</t>
+  </si>
+  <si>
+    <t>l3out_vlp</t>
+  </si>
+  <si>
+    <t>msite_vlp</t>
+  </si>
+  <si>
+    <t>Production VRF</t>
+  </si>
+  <si>
+    <t>Inband Context</t>
+  </si>
+  <si>
+    <t>OOB Context</t>
+  </si>
+  <si>
+    <t>infra Context</t>
+  </si>
+  <si>
+    <t>Production Context</t>
+  </si>
+  <si>
+    <t>DMZ Context</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2555,7 +2400,17 @@
       <t xml:space="preserve"> - Keep your names simple.  It will save you time when troubleshooting.  Most CLI commands have a 10 character limit on the display field.  So if your VRF Name is longer than 10 characters it will wrap and be harder to read.
                                        - We Recommend Putting the VRFs in the Common Tenant, to simplify routing between VRFs (if ever desired now or in the future), it will save you time from having to create import/export route control policies.
                                        - Many Integrations also need the VRF in the Common Tenant, like Kubernetes CNI.
-                                       - VRF_Description: Optional.  Currently not supported by the ACI Provider.  Will Add when it is fixed
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                      - VRF_Description: Optional.  Currently not supported by the ACI Provider.  Will Add when it is fixed
                                        - BD_Enforcement: Only Allow Endpoints to ping their Bridge Domain Gateways.. Block others.  default is no
                                        - DP_Learning: Enable or Disable Dataplane Endpoint Learning.  Default is enabled.  Only disable in corner cases for hosts that don't follow basic rules: like multiple mac addresses sharing the same ip address.
                                        - Policy_Enforcement: Enable or Disable Whitelist filtering.  The default is enforced
@@ -2568,6 +2423,372 @@
                                        - VRF_Valid_Policy: VRF Validation Policy - use "default" for "uni/tn-common/vrfvalidationpol-default".  If not default, you must use the full qualification as shown.  Only Modify if you have an explicit policy instead.</t>
     </r>
   </si>
+  <si>
+    <t>Create SNMP Context Communities</t>
+  </si>
+  <si>
+    <t>ctx_comm</t>
+  </si>
+  <si>
+    <t>Ctx_Community</t>
+  </si>
+  <si>
+    <t>walkthisway</t>
+  </si>
+  <si>
+    <t>talkthisway</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**Important Notes**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - This Section is only necessary if you want a "SNMP Context Community" Defined.  An SNMP Context was created as part of the VRF Creation.
+                                       - Note: a Community can only be used within the context when assigned to it.  But a Fabric Wide SNMP Community can be used for an SNMP Context when qualified with the Context.
+                                       - For Example to get Inband IPv4 Management Address without an SNMP Community assigned to the VRF SNMP Context you would do:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[tyscott@lnx1 ~]$ snmpwalk -c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>isitgoodenough@inb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> -v2c asgard-leaf101.rich.ciscolabs.com ipAddressPrefixOrigin.335544322.ipv4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>IP-MIB::ipAddressPrefixOrigin.335544322.ipv4."192.168.169.251".32 = INTEGER: manual(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[tyscott@lnx1 ~]$</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                        inb is the name of the context created by the script for VRF inb.  To Query the Same parameter with a Community assigned to the inb Context you would do:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[tyscott@lnx1 ~]$ snmpwalk -c </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>walkthisway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> -v2c asgard-leaf101.rich.ciscolabs.com ipAddressPrefixOrigin.335544322.ipv4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>IP-MIB::ipAddressPrefixOrigin.335544322.ipv4."192.168.169.251".32 = INTEGER: manual(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[tyscott@lnx1 ~]$</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                       Note that "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>walkthisway</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" can only be used with the "inb" SNMP Context since it is assigned to it, while the community "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isitgoodenough</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" can be used Fabric wide.
+                                       See SNMP Configuration Guide: https://www.cisco.com/c/dam/en/us/solutions/collateral/data-center-virtualization/application-centric-infrastructure/aci-guide-configuring-snmp.pdf for more information
+                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Context_Community Field is Hidden but displays in the Formula Bar when the cell is selected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The Privacy Key and Authorization Key must be 8 or more characters if used.  Privacy Key is Optional
+             The "Privacy Key" and "Authorization Key" Cells are Hidden</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Don't Lock Yourself Out. This is probably safer to configure outside of automation. Use at your own risk
+            The Login Domain_Type local does not require a Login Domain, it can be blank								
+            If left "local" then for Console/SSH Sessions to use another domain you would input your credentials as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apic:{login_domain}\&lt;username&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> i.e. apic:ISE\cisco_user</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2576,7 +2797,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2774,6 +2995,34 @@
       <u/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF00B050"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2989,21 +3238,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3116,17 +3356,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="4" tint="0.39994506668294322"/>
       </left>
@@ -3180,19 +3409,6 @@
         <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3278,26 +3494,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3322,20 +3555,22 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="8" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="7" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="19">
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="16">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" xfId="2" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3350,22 +3585,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="7" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
@@ -3374,115 +3609,121 @@
     <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="44" applyFont="1">
+    <xf numFmtId="49" fontId="24" fillId="37" borderId="16" xfId="44" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="24" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="19" xfId="44">
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="16" xfId="44">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="45" applyFont="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="45" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="45">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="45">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="19" xfId="45" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="16" xfId="45" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="24" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="37" borderId="19" xfId="44" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="23" fillId="37" borderId="16" xfId="44" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="37" borderId="19" xfId="44" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="16" xfId="44" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="19" xfId="45" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="45" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="1" fontId="24" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="21" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="20" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="18" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="37" borderId="17" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="19" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="37" borderId="20" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="16" xfId="44" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="16" xfId="44" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="45" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="45" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="19" xfId="44" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="19" xfId="44" applyFont="1">
+    <xf numFmtId="164" fontId="23" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="45" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
@@ -3491,32 +3732,45 @@
     <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="36" borderId="8" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="36" borderId="7" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="37" borderId="19" xfId="44" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="7" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="7" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="7" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3962,10 +4216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB82FB59-EE13-4ED4-8F66-C41B37FEDA25}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,40 +4246,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -4046,59 +4301,59 @@
       <c r="M3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -4165,6 +4420,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1357B1-A8FC-462C-B6DB-B8889CA3DA52}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4193,38 +4449,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -4384,38 +4640,38 @@
       <c r="M11" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -4604,6 +4860,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038CB1EB-BD2F-4D16-8582-4F6B60DC07DA}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4616,6 +4873,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4633,7 +4891,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
@@ -4802,10 +5060,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91DD70-D335-4400-8018-6AA4507345E0}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,17 +5082,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>494</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="A1" s="58" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -4846,27 +5105,27 @@
         <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>324</v>
@@ -4878,71 +5137,71 @@
         <v>329</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>332</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>329</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>363</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H4" s="25">
         <v>1</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>338</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>334</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>336</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H5" s="28">
         <v>995</v>
@@ -4953,25 +5212,25 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>342</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>334</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>337</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H6" s="25">
         <v>995</v>
@@ -4982,25 +5241,25 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>346</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>339</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>340</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H7" s="28">
         <v>1</v>
@@ -5011,25 +5270,25 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>350</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>339</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>341</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H8" s="25">
         <v>1</v>
@@ -5040,25 +5299,25 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>353</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>343</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>344</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H9" s="28">
         <v>187</v>
@@ -5069,83 +5328,83 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>358</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>343</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>345</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H10" s="25">
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>359</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>347</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>348</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H11" s="28">
         <v>1</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>360</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>347</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>349</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H12" s="25">
         <v>1</v>
@@ -5156,118 +5415,118 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>347</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>351</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H13" s="28">
         <v>1</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>347</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>352</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H14" s="25">
         <v>1</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>354</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>356</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H15" s="28">
         <v>1</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>354</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>357</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H16" s="25">
         <v>1</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5289,10 +5548,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298A81F1-38AC-4BF5-848F-F28E1CADD09C}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,40 +5578,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -5373,59 +5633,59 @@
       <c r="M3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -5470,42 +5730,42 @@
       <c r="M9" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -5532,10 +5792,10 @@
       <c r="A14" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="24"/>
@@ -5550,44 +5810,44 @@
       <c r="M14" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+    </row>
+    <row r="17" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
@@ -5636,82 +5896,82 @@
       <c r="M19" s="24"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-    </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+    </row>
+    <row r="23" spans="1:13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="66" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="34">
@@ -5723,13 +5983,13 @@
       <c r="D24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="39" t="s">
         <v>117</v>
       </c>
       <c r="H24" s="19" t="s">
@@ -5753,44 +6013,44 @@
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-    </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
@@ -5839,38 +6099,38 @@
       <c r="M29" s="24"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
     </row>
     <row r="32" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="52" t="s">
-        <v>480</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="B32" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
     </row>
     <row r="33" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
@@ -5921,7 +6181,7 @@
       <c r="B35" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="40" t="s">
         <v>145</v>
       </c>
       <c r="D35" s="24"/>
@@ -5937,48 +6197,48 @@
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-    </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+    </row>
+    <row r="39" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="20" t="s">
@@ -5999,67 +6259,67 @@
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-    </row>
-    <row r="44" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+    </row>
+    <row r="44" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
     </row>
     <row r="45" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
@@ -6121,67 +6381,67 @@
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-    </row>
-    <row r="49" spans="1:26" s="3" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-    </row>
-    <row r="50" spans="1:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+    </row>
+    <row r="49" spans="1:26" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="67"/>
+      <c r="B49" s="59" t="s">
+        <v>610</v>
+      </c>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+    </row>
+    <row r="50" spans="1:26" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="1:26" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+    </row>
+    <row r="51" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>43</v>
       </c>
@@ -6262,22 +6522,22 @@
     </row>
     <row r="54" spans="1:26" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="47"/>
+      <c r="A55" s="53" t="s">
+        <v>463</v>
+      </c>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="45"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
@@ -6293,21 +6553,21 @@
     </row>
     <row r="56" spans="1:26" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
-      <c r="B56" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="48"/>
+      <c r="B56" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="46"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
@@ -6320,53 +6580,53 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:26" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>480</v>
+      </c>
+      <c r="D57" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="E57" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="H57" s="66" t="s">
+        <v>478</v>
+      </c>
+      <c r="I57" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="M57" s="66" t="s">
         <v>469</v>
       </c>
-      <c r="M57" s="8" t="s">
+      <c r="N57" s="66" t="s">
         <v>470</v>
       </c>
-      <c r="N57" s="8" t="s">
-        <v>471</v>
-      </c>
     </row>
     <row r="58" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
-        <v>465</v>
+      <c r="A58" s="43" t="s">
+        <v>464</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>68</v>
@@ -6375,7 +6635,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>56</v>
@@ -6389,76 +6649,76 @@
       <c r="H58" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="46" t="s">
+      <c r="I58" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="J58" s="46" t="s">
+      <c r="J58" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="K58" s="46" t="s">
+      <c r="K58" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="L58" s="46" t="s">
+      <c r="L58" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="M58" s="46" t="s">
+      <c r="M58" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N58" s="46" t="s">
+      <c r="N58" s="44" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="51" t="s">
-        <v>467</v>
-      </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-    </row>
-    <row r="61" spans="1:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A60" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+    </row>
+    <row r="61" spans="1:26" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="C61" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
     </row>
     <row r="62" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45" t="s">
-        <v>472</v>
-      </c>
-      <c r="B62" s="46" t="s">
+      <c r="A62" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B62" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C62" s="18" t="s">
@@ -6603,10 +6863,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A246B3-AC7A-4E9C-820F-BC53B3CCF837}">
-  <dimension ref="A1:M34"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="A3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,83 +6887,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="A1" s="53" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="C3" s="66" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>575</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D4" s="28">
         <v>1</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="20"/>
@@ -6715,19 +6976,19 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>560</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24"/>
@@ -6740,19 +7001,19 @@
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D6" s="28">
         <v>100</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="20"/>
@@ -6765,19 +7026,19 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D7" s="25">
         <v>101</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="24"/>
@@ -6790,19 +7051,19 @@
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D8" s="28">
         <v>4</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="20"/>
@@ -6814,45 +7075,45 @@
       <c r="M8" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
-        <v>563</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
+      <c r="A10" s="58" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="56" t="s">
-        <v>572</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="B11" s="57" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>433</v>
@@ -6888,16 +7149,16 @@
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>335</v>
@@ -6918,119 +7179,226 @@
         <v>22</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="50"/>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
-        <v>568</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-    </row>
-    <row r="17" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="56" t="s">
-        <v>573</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="8"/>
+      <c r="A14" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="20">
+        <v>9000</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>571</v>
+        <v>347</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>330</v>
       </c>
       <c r="F19" s="20">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>331</v>
@@ -7045,496 +7413,209 @@
         <v>22</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>564</v>
+        <v>351</v>
       </c>
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="50"/>
-    </row>
-    <row r="22" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
-        <v>569</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-    </row>
-    <row r="23" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="56" t="s">
-        <v>574</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A20" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="E20" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="24">
+        <v>9000</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="D21" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="F25" s="20">
-        <v>1500</v>
-      </c>
-      <c r="G25" s="20" t="s">
+      <c r="F21" s="20">
+        <v>9000</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="K21" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="D22" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F22" s="24">
         <v>9000</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G22" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="M26" s="50"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="C27" s="20" t="s">
+      <c r="K22" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="E27" s="20" t="s">
+      <c r="D23" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F23" s="20">
         <v>9000</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G23" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="F28" s="24">
-        <v>9000</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F29" s="20">
-        <v>9000</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="F30" s="24">
-        <v>9000</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="24" t="s">
+      <c r="K23" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="L30" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F31" s="20">
-        <v>9000</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="M31" s="20"/>
-    </row>
-    <row r="32" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="F32" s="24">
-        <v>9000</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="L23" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F33" s="20">
-        <v>9000</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="M33" s="20"/>
-    </row>
-    <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="LACP Policy" error="Please Select a Valid Value" sqref="E25:E34 E19:E20" xr:uid="{7F05D07B-9005-4020-BEDC-651531E90C9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="LACP Policy" error="Please Select a Valid Value" sqref="E15:E24" xr:uid="{7F05D07B-9005-4020-BEDC-651531E90C9A}">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C13:C14 C19:C20 C25:C34" xr:uid="{D018FEE1-8036-4FDA-8DCB-B7908350F65A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C13:C14 C15:C24" xr:uid="{D018FEE1-8036-4FDA-8DCB-B7908350F65A}">
       <formula1>"access_aep,inband_aep,l3out_aep,msite_aep"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="BPDU" error="Please Select BPDU_fg, BPDU_ft, BPDU_gd, no, or yes" sqref="K13:K14 K19:K20 K25:K34" xr:uid="{74C6CC98-EC1B-49A5-B6F2-0FC03D4D2B20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="BPDU" error="Please Select BPDU_fg, BPDU_ft, BPDU_gd, no, or yes" sqref="K13:K14 K15:K24" xr:uid="{74C6CC98-EC1B-49A5-B6F2-0FC03D4D2B20}">
       <formula1>"BPDU_ft_and_gd,BPDU_ft,BPDU_gd,BPDU_no_ft_or_gd"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please Select yes or no" sqref="H13:J14 H19:J20 H25:J34" xr:uid="{7208DF1D-8F27-488B-857A-510A5C3F9C8F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please Select yes or no" sqref="H13:J14 H15:J24" xr:uid="{7208DF1D-8F27-488B-857A-510A5C3F9C8F}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MTU Error" error="Valid MTU Values are between 1300 and 9000" sqref="F13:F14 F19:F20 F25:F26 F29:F30 F32:F34" xr:uid="{A1A31363-E8BA-4B7E-A602-71C37E8DA920}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MTU Error" error="Valid MTU Values are between 1300 and 9000" sqref="F13:F14 F15:F16 F19:F20 F22:F24" xr:uid="{A1A31363-E8BA-4B7E-A602-71C37E8DA920}">
       <formula1>1300</formula1>
       <formula2>9000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Link Level Policy" error="Please Select a Valid Value" sqref="G13:G14 G19:G20 G25:G34" xr:uid="{2B803925-0025-46AE-ABB7-9E1DF2BDD452}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Link Level Policy" error="Please Select a Valid Value" sqref="G13:G14 G15:G24" xr:uid="{2B803925-0025-46AE-ABB7-9E1DF2BDD452}">
       <formula1>"100M_Auto,100M_noNeg,1G_Auto,1G_noNeg,10G_Auto,10G_noNeg,25G_Auto,25G_noNeg,40G_Auto,40G_noNeg,50G_Auto,50G_noNeg,100G_Auto,100G_noNeg,200G_Auto,200G_noNeg,400G_Auto,400G_noNeg,inherit_Auto,inherit_noNeg"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A8" xr:uid="{D07A2642-2D87-450E-B14F-0CEEFF911425}">
@@ -7543,10 +7624,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C8 E4:E8 G4:G8" xr:uid="{6C47D1B2-EB54-47FC-9BAE-968A84E96ED8}">
       <formula1>"dynamic,static"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B13:B14 B19:B20 B25:B34" xr:uid="{51E63C8C-1585-4AE5-B28E-B858035A6506}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B13:B14 B15:B24" xr:uid="{51E63C8C-1585-4AE5-B28E-B858035A6506}">
       <formula1>"access,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Select a valid drop down option" sqref="A13:A14 A19:A20 A25:A34" xr:uid="{DE667B53-D735-44B9-916D-825FADB50FB8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Select a valid drop down option" sqref="A13:A14 A15:A24" xr:uid="{DE667B53-D735-44B9-916D-825FADB50FB8}">
       <formula1>"add_polgrp"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="LACP Policy" error="Please Select a Valid Value" sqref="E13:E14" xr:uid="{09B0207B-CC94-4A50-9D65-3DDBA5B23605}">
@@ -7559,10 +7640,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q74"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:DY74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37:AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7580,41 +7662,41 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>575</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:129" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:129" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:129" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -7634,16 +7716,132 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
-        <v>557</v>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+    </row>
+    <row r="4" spans="1:129" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>550</v>
       </c>
       <c r="B4" s="18">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -7656,41 +7854,41 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:129" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:129" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:129" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -7716,8 +7914,26 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+    </row>
+    <row r="9" spans="1:129" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
@@ -7744,7 +7960,7 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:129" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="25"/>
@@ -7759,7 +7975,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:129" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="28"/>
@@ -7774,7 +7990,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:129" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="25"/>
@@ -7789,7 +8005,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:129" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="28"/>
@@ -7804,7 +8020,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:129" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="25"/>
@@ -7819,7 +8035,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:129" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="28"/>
@@ -7834,41 +8050,41 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:30" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" spans="1:30" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+    </row>
+    <row r="19" spans="1:30" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
@@ -7906,8 +8122,25 @@
         <v>406</v>
       </c>
       <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+    </row>
+    <row r="20" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>3</v>
       </c>
@@ -7946,7 +8179,7 @@
       </c>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>3</v>
       </c>
@@ -7985,7 +8218,7 @@
       </c>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
@@ -8024,7 +8257,7 @@
       </c>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
@@ -8039,7 +8272,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -8054,7 +8287,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -8069,7 +8302,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -8084,7 +8317,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -8099,7 +8332,7 @@
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -8114,7 +8347,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
     </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
@@ -8129,7 +8362,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -8144,7 +8377,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
     </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
@@ -8159,7 +8392,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
@@ -8174,7 +8407,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -8189,49 +8422,49 @@
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
     </row>
-    <row r="35" spans="1:17" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
-        <v>581</v>
-      </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
+    <row r="35" spans="1:31" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:17" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
     </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>0</v>
       </c>
@@ -8283,9 +8516,23 @@
       <c r="Q37" s="8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+    </row>
+    <row r="38" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="64" t="s">
         <v>159</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -8313,8 +8560,8 @@
       <c r="P38" s="20"/>
       <c r="Q38" s="20"/>
     </row>
-    <row r="39" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="65"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -8332,8 +8579,8 @@
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
     </row>
-    <row r="40" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="64"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -8351,8 +8598,8 @@
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
     </row>
-    <row r="41" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="65"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -8370,8 +8617,8 @@
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
     </row>
-    <row r="42" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="64"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -8389,8 +8636,8 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="20"/>
     </row>
-    <row r="43" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="65"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
@@ -8408,41 +8655,41 @@
       <c r="P43" s="24"/>
       <c r="Q43" s="24"/>
     </row>
-    <row r="45" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+    <row r="45" spans="1:31" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-    </row>
-    <row r="46" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+    </row>
+    <row r="46" spans="1:31" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-    </row>
-    <row r="47" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+    </row>
+    <row r="47" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>0</v>
       </c>
@@ -8467,7 +8714,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>113</v>
       </c>
@@ -8583,38 +8830,38 @@
       <c r="M54" s="20"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="55" t="s">
-        <v>528</v>
-      </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
+      <c r="A56" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
     </row>
     <row r="57" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
-      <c r="B57" s="57" t="s">
-        <v>579</v>
-      </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
+      <c r="B57" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
     </row>
     <row r="58" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -8648,7 +8895,7 @@
         <v>201</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -8669,7 +8916,7 @@
         <v>201</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -8690,7 +8937,7 @@
         <v>202</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -8711,7 +8958,7 @@
         <v>202</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -8754,45 +9001,45 @@
       <c r="M64" s="24"/>
     </row>
     <row r="66" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
-      <c r="B67" s="56" t="s">
-        <v>580</v>
-      </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
+      <c r="B67" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
     </row>
     <row r="68" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>52</v>
@@ -8816,7 +9063,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>325</v>
@@ -8837,7 +9084,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>325</v>
@@ -8858,7 +9105,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>325</v>
@@ -8879,7 +9126,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>325</v>
@@ -8926,12 +9173,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="B36:M36"/>
-    <mergeCell ref="A17:M17"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A6:M6"/>
@@ -8940,6 +9181,12 @@
     <mergeCell ref="A56:M56"/>
     <mergeCell ref="B57:M57"/>
     <mergeCell ref="B46:M46"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="A17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="F38:P38">
     <cfRule type="expression" dxfId="11" priority="8">
@@ -9036,10 +9283,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74662C65-93A5-4E5D-9237-838636A759C1}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:M25"/>
+      <selection activeCell="B20" sqref="B20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9065,39 +9313,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="58" t="s">
-        <v>490</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="B2" s="60" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9135,10 +9383,10 @@
         <v>140</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>33</v>
@@ -9167,7 +9415,7 @@
         <v>139</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I4" s="28">
         <v>22</v>
@@ -9186,40 +9434,40 @@
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:14" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -9227,7 +9475,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>52</v>
@@ -9236,7 +9484,7 @@
         <v>440</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>59</v>
@@ -9248,7 +9496,7 @@
         <v>366</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -9326,38 +9574,38 @@
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:14" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -9367,7 +9615,7 @@
         <v>58</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>52</v>
@@ -9376,7 +9624,7 @@
         <v>440</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>59</v>
@@ -9388,7 +9636,7 @@
         <v>366</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -9465,40 +9713,40 @@
       <c r="M17" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-    </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="59" t="s">
-        <v>493</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="67"/>
+      <c r="B20" s="70" t="s">
+        <v>611</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>0</v>
       </c>
@@ -9509,7 +9757,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -9566,118 +9814,118 @@
       <c r="M23" s="24"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
-        <v>531</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="A25" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
     </row>
     <row r="26" spans="1:13" ht="197.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-    </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B26" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="66" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>538</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>531</v>
+      </c>
+      <c r="E27" s="66" t="s">
         <v>532</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="F27" s="66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>534</v>
+      </c>
+      <c r="H27" s="66" t="s">
         <v>540</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="I27" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="J27" s="66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K27" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="L27" s="66" t="s">
         <v>536</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>530</v>
+      <c r="M27" s="66" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="D28" s="49">
+        <v>537</v>
+      </c>
+      <c r="D28" s="47">
         <v>48</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="47">
         <v>2</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="47">
         <v>5</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="H28" s="49">
+        <v>544</v>
+      </c>
+      <c r="H28" s="47">
         <v>5</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="47">
         <v>5</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="47">
         <v>60</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="47">
         <v>600</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="47">
         <v>24</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="47">
         <v>1200</v>
       </c>
     </row>
@@ -9825,10 +10073,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB904D4-94FB-4AFB-AF6F-8203244695EC}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9844,59 +10093,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="57" t="s">
-        <v>608</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -10261,10 +10510,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805BF71-948B-48DC-A5E8-1F6702F887A8}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10286,77 +10536,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="243" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="57" t="s">
-        <v>609</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="M3" s="8"/>
+      <c r="E3" s="66" t="s">
+        <v>582</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>585</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>581</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>586</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>587</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>588</v>
+      </c>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -10368,8 +10618,8 @@
       <c r="C4" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>591</v>
+      <c r="D4" s="49" t="s">
+        <v>597</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>21</v>
@@ -10384,7 +10634,7 @@
         <v>177</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>68</v>
@@ -10407,8 +10657,8 @@
       <c r="C5" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>592</v>
+      <c r="D5" s="50" t="s">
+        <v>580</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>21</v>
@@ -10423,7 +10673,7 @@
         <v>180</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>68</v>
@@ -10440,7 +10690,7 @@
       <c r="A6" s="20"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
-      <c r="D6" s="62"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -10617,76 +10867,80 @@
       <c r="M17" s="30"/>
     </row>
     <row r="19" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61" t="s">
-        <v>603</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-    </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" ht="59.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="63" t="s">
+        <v>604</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" ht="231.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="57" t="s">
-        <v>593</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="59" t="s">
+        <v>609</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="66" t="s">
         <v>606</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="29"/>
+        <v>578</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>607</v>
+      </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -10698,16 +10952,20 @@
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="50" t="s">
+        <v>599</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>608</v>
+      </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -10718,17 +10976,17 @@
       <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>604</v>
-      </c>
+      <c r="A24" s="20"/>
       <c r="B24" s="29" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="29"/>
+        <v>579</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="E24" s="51"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -10739,9 +10997,7 @@
       <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>604</v>
-      </c>
+      <c r="A25" s="24"/>
       <c r="B25" s="30" t="s">
         <v>174</v>
       </c>
@@ -10749,9 +11005,11 @@
         <v>168</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="E25" s="30"/>
+        <v>601</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -10762,9 +11020,7 @@
       <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>604</v>
-      </c>
+      <c r="A26" s="20"/>
       <c r="B26" s="29" t="s">
         <v>174</v>
       </c>
@@ -10772,9 +11028,11 @@
         <v>170</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="E26" s="29"/>
+        <v>602</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -10789,7 +11047,9 @@
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="E27" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -10804,7 +11064,9 @@
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -10819,7 +11081,9 @@
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="E29" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -10834,7 +11098,9 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -10849,7 +11115,9 @@
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="E31" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
@@ -10864,7 +11132,9 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -10879,7 +11149,9 @@
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="E33" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
@@ -10894,7 +11166,9 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="E34" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
@@ -10909,7 +11183,9 @@
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="E35" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
@@ -10924,7 +11200,9 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="E36" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
@@ -10939,7 +11217,9 @@
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="E37" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -10954,7 +11234,9 @@
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="E38" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -10969,7 +11251,9 @@
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="E39" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
@@ -10984,7 +11268,9 @@
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="E40" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -10999,7 +11285,9 @@
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
+      <c r="E41" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
@@ -11027,7 +11315,7 @@
       <formula1>"add_vrf"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Please Select a valid value from the drop down" sqref="A22:A41" xr:uid="{EA68E1F0-F958-47CD-9577-F3DE12719EC8}">
-      <formula1>"snmp_ctx"</formula1>
+      <formula1>"ctx_comm"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E17" xr:uid="{4769C0CA-D380-41A5-ADBE-35B462613550}">
       <formula1>"no,yes"</formula1>
@@ -11040,14 +11328,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2388361B-2323-4696-8C92-EC5FC45CA36C}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -11065,10 +11355,10 @@
     <col min="10" max="10" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="5" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="5" customWidth="1"/>
     <col min="14" max="14" width="37" style="5" customWidth="1"/>
     <col min="15" max="15" width="30" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="5" customWidth="1"/>
     <col min="17" max="17" width="12.140625" style="5" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" style="5" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="5" customWidth="1"/>
@@ -11076,65 +11366,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -11155,13 +11445,13 @@
       <c r="F5" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="41" t="s">
         <v>450</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="41" t="s">
         <v>184</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -11371,24 +11661,24 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
     </row>
     <row r="13" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -11409,13 +11699,13 @@
       <c r="F13" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="41" t="s">
         <v>450</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="41" t="s">
         <v>184</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -11476,7 +11766,7 @@
       <c r="M14" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="20" t="s">
         <v>191</v>
       </c>
@@ -11566,7 +11856,7 @@
       <c r="M16" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="42" t="s">
         <v>209</v>
       </c>
       <c r="O16" s="20" t="s">
@@ -12296,7 +12586,7 @@
       <c r="M32" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N32" s="44"/>
+      <c r="N32" s="42"/>
       <c r="O32" s="20" t="s">
         <v>191</v>
       </c>
@@ -12384,7 +12674,7 @@
       <c r="M34" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N34" s="44"/>
+      <c r="N34" s="42"/>
       <c r="O34" s="20" t="s">
         <v>191</v>
       </c>
@@ -12932,7 +13222,7 @@
       <c r="M46" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N46" s="44" t="s">
+      <c r="N46" s="42" t="s">
         <v>293</v>
       </c>
       <c r="O46" s="20"/>
@@ -13020,7 +13310,7 @@
       <c r="M48" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N48" s="44" t="s">
+      <c r="N48" s="42" t="s">
         <v>301</v>
       </c>
       <c r="O48" s="20"/>
@@ -13108,7 +13398,7 @@
       <c r="M50" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N50" s="44" t="s">
+      <c r="N50" s="42" t="s">
         <v>306</v>
       </c>
       <c r="O50" s="20"/>
@@ -13196,7 +13486,7 @@
       <c r="M52" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="N52" s="44" t="s">
+      <c r="N52" s="42" t="s">
         <v>310</v>
       </c>
       <c r="O52" s="20"/>
@@ -13236,7 +13526,7 @@
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
-      <c r="N54" s="44"/>
+      <c r="N54" s="42"/>
       <c r="O54" s="20"/>
       <c r="P54" s="20"/>
     </row>
@@ -13272,7 +13562,7 @@
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
-      <c r="N56" s="44"/>
+      <c r="N56" s="42"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
     </row>
@@ -13308,7 +13598,7 @@
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
-      <c r="N58" s="44"/>
+      <c r="N58" s="42"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
     </row>
@@ -13344,7 +13634,7 @@
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="44"/>
+      <c r="N60" s="42"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
     </row>
@@ -13380,7 +13670,7 @@
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
-      <c r="N62" s="44"/>
+      <c r="N62" s="42"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
     </row>
@@ -13416,7 +13706,7 @@
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
-      <c r="N64" s="44"/>
+      <c r="N64" s="42"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
     </row>
@@ -13452,7 +13742,7 @@
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
-      <c r="N66" s="44"/>
+      <c r="N66" s="42"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
     </row>
@@ -13517,10 +13807,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B44EF0-F7C8-4818-ABD1-94AFD5852AB2}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="A1:M23"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13545,38 +13836,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -13736,38 +14027,38 @@
       <c r="M11" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">

--- a/Input-Spreadsheet.xlsx
+++ b/Input-Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44279D5-F554-437A-995B-108106E4351C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E809350-E15A-43CC-8AE3-F1FA4EB6F926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="6" r:id="rId1"/>
@@ -30,8 +30,8 @@
   <definedNames>
     <definedName name="leaf">formulas!$B$2:$B$18</definedName>
     <definedName name="spine">formulas!$C$2:$C$12</definedName>
-    <definedName name="spine_modules">formulas!$F$2:$F$5</definedName>
-    <definedName name="spine_type">formulas!$E$2:$E$4</definedName>
+    <definedName name="spine_modules">formulas!$F$2:$F$8</definedName>
+    <definedName name="spine_type">formulas!$E$2:$E$5</definedName>
     <definedName name="switch_role">formulas!$A$2:$A$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="616">
   <si>
     <t>Type</t>
   </si>
@@ -123,18 +123,12 @@
     <t>smartcallhome</t>
   </si>
   <si>
-    <t>rich-lab@cisco.com</t>
-  </si>
-  <si>
     <t>ntp</t>
   </si>
   <si>
     <t>Domain</t>
   </si>
   <si>
-    <t>rich.ciscolabs.com</t>
-  </si>
-  <si>
     <t>snmp_client</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>snmp_info</t>
   </si>
   <si>
-    <t>Richfield Ohio</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -355,9 +346,6 @@
   </si>
   <si>
     <t>SNMP Clients</t>
-  </si>
-  <si>
-    <t>cisco.com</t>
   </si>
   <si>
     <t>SNMP Communities</t>
@@ -1385,30 +1373,6 @@
     <t>r143c-fp01-Eth1/1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notes:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This Section is only needed if you have Modular Spines</t>
-    </r>
-  </si>
-  <si>
     <t>Richfield Lab</t>
   </si>
   <si>
@@ -2252,9 +2216,6 @@
       </rPr>
       <t xml:space="preserve"> This is not Currently Supported.  If Desired Please Provide Feedback on GitHub Repository.  Right Now Manually Create the New Interface Selectors on the Corresponding Leaf Worksheet</t>
     </r>
-  </si>
-  <si>
-    <t>Define Modules (Only Needed for Modular Spines)</t>
   </si>
   <si>
     <t>BPDU_no_ft_or_gd</t>
@@ -2787,6 +2748,57 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> i.e. apic:ISE\cisco_user</t>
+    </r>
+  </si>
+  <si>
+    <t>sub.example.com</t>
+  </si>
+  <si>
+    <t>example.com</t>
+  </si>
+  <si>
+    <t>cust-lab@example.com</t>
+  </si>
+  <si>
+    <t>Customer Example</t>
+  </si>
+  <si>
+    <t>Define Modules (Only Needed for Modular Devices)</t>
+  </si>
+  <si>
+    <t>9396</t>
+  </si>
+  <si>
+    <t>M6PQ</t>
+  </si>
+  <si>
+    <t>M12PQ</t>
+  </si>
+  <si>
+    <t>M4PC-CFP2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This Section is only needed if you have Modular Switches…. 9396 would be the only leaf to cover here… Rest are modular 9500 spines</t>
     </r>
   </si>
 </sst>
@@ -3720,39 +3732,6 @@
     <xf numFmtId="164" fontId="23" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="36" borderId="7" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="16" xfId="44" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3763,14 +3742,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="7" xfId="3"/>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="7" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="7" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="7" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="36" borderId="7" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="7" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -4219,7 +4231,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
@@ -4246,40 +4258,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="B2" s="55" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -4301,59 +4313,59 @@
       <c r="M3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="A5" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
+      <c r="B6" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="B7" s="55" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -4449,57 +4461,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="A1" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4511,19 +4523,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -4640,60 +4652,60 @@
       <c r="M11" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
+      <c r="A13" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="B14" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4704,7 +4716,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>5</v>
@@ -4713,10 +4725,10 @@
         <v>201</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -4877,7 +4889,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,7 +4905,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -4902,10 +4914,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4913,16 +4925,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4930,78 +4942,90 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1">
         <v>9504</v>
@@ -5009,7 +5033,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>9508</v>
@@ -5017,7 +5041,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1">
         <v>9516</v>
@@ -5025,36 +5049,37 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5082,329 +5107,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
-        <v>492</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="A1" s="63" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H4" s="25">
         <v>1</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H5" s="28">
         <v>995</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H6" s="25">
         <v>995</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H7" s="28">
         <v>1</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H8" s="25">
         <v>1</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H9" s="28">
         <v>187</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H10" s="25">
         <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H11" s="28">
         <v>1</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H12" s="25">
         <v>1</v>
@@ -5415,118 +5440,118 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>351</v>
-      </c>
       <c r="G13" s="20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H13" s="28">
         <v>1</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C14" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>507</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>512</v>
       </c>
       <c r="H14" s="25">
         <v>1</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H15" s="28">
         <v>1</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H16" s="25">
         <v>1</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5551,14 +5576,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" style="5" customWidth="1"/>
@@ -5578,40 +5603,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="B2" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -5633,66 +5658,66 @@
       <c r="M3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="A5" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
+      <c r="B6" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>21</v>
@@ -5713,7 +5738,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>22</v>
@@ -5730,49 +5755,49 @@
       <c r="M9" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="A11" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
+      <c r="B12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>27</v>
+        <v>606</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>22</v>
@@ -5790,10 +5815,10 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>102</v>
+        <v>607</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>21</v>
@@ -5810,54 +5835,54 @@
       <c r="M14" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
+      <c r="A16" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
     </row>
     <row r="17" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
+      <c r="D17" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>18</v>
@@ -5874,13 +5899,13 @@
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>18</v>
@@ -5896,78 +5921,78 @@
       <c r="M19" s="24"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
+      <c r="A21" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
+      <c r="B22" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="1:13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="H23" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="I23" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="E23" s="66" t="s">
+      <c r="J23" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="K23" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="L23" s="55" t="s">
         <v>372</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="M23" s="55" t="s">
         <v>373</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="J23" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="K23" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="L23" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="M23" s="66" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5978,28 +6003,28 @@
         <v>25</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K24" s="29">
         <v>5555555</v>
@@ -6013,54 +6038,54 @@
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
+      <c r="A26" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
+      <c r="B27" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>18</v>
@@ -6077,13 +6102,13 @@
     </row>
     <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>30</v>
-      </c>
       <c r="C29" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>18</v>
@@ -6099,48 +6124,48 @@
       <c r="M29" s="24"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
+      <c r="A31" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="54" t="s">
-        <v>479</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
+      <c r="B32" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -6155,13 +6180,13 @@
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
@@ -6176,13 +6201,13 @@
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -6197,52 +6222,52 @@
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
+      <c r="A38" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
     </row>
     <row r="39" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
+      <c r="B39" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>379</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>24</v>
+        <v>608</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
@@ -6259,86 +6284,86 @@
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
+      <c r="A42" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
     </row>
     <row r="43" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
-      <c r="B43" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
+      <c r="B43" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
     </row>
     <row r="44" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="F44" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="G44" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
+      <c r="B44" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
     </row>
     <row r="45" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C45" s="31">
         <v>162</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>18</v>
@@ -6352,22 +6377,22 @@
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C46" s="32">
         <v>162</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>18</v>
@@ -6381,84 +6406,84 @@
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
+      <c r="A48" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
     </row>
     <row r="49" spans="1:26" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
-      <c r="B49" s="59" t="s">
-        <v>610</v>
-      </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="60" t="s">
+        <v>604</v>
+      </c>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
     </row>
     <row r="50" spans="1:26" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="D50" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="E50" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="F50" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
+      <c r="B50" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
     </row>
     <row r="51" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="F51" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
@@ -6470,22 +6495,22 @@
     </row>
     <row r="52" spans="1:26" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
@@ -6497,20 +6522,20 @@
     </row>
     <row r="53" spans="1:26" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
@@ -6522,21 +6547,21 @@
     </row>
     <row r="54" spans="1:26" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="53" t="s">
-        <v>463</v>
-      </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
+      <c r="A55" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
       <c r="N55" s="45"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -6553,20 +6578,20 @@
     </row>
     <row r="56" spans="1:26" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
-      <c r="B56" s="54" t="s">
-        <v>481</v>
-      </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
+      <c r="B56" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
       <c r="N56" s="46"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -6581,148 +6606,148 @@
       <c r="Y56" s="5"/>
     </row>
     <row r="57" spans="1:26" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>475</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="G57" s="55" t="s">
         <v>472</v>
       </c>
-      <c r="C57" s="66" t="s">
-        <v>480</v>
-      </c>
-      <c r="D57" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="E57" s="66" t="s">
+      <c r="H57" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="F57" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="G57" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="H57" s="66" t="s">
-        <v>478</v>
-      </c>
-      <c r="I57" s="66" t="s">
+      <c r="I57" s="55" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" s="55" t="s">
+        <v>469</v>
+      </c>
+      <c r="K57" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="L57" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="M57" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="N57" s="55" t="s">
         <v>465</v>
-      </c>
-      <c r="J57" s="66" t="s">
-        <v>474</v>
-      </c>
-      <c r="K57" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="L57" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="M57" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="N57" s="66" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I58" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J58" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K58" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L58" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M58" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N58" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53" t="s">
-        <v>466</v>
-      </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
+      <c r="A60" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
     </row>
     <row r="61" spans="1:26" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="66" t="s">
+      <c r="A61" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="C61" s="66" t="s">
-        <v>395</v>
-      </c>
-      <c r="D61" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="F61" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
+      <c r="B61" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="D61" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
     </row>
     <row r="62" spans="1:26" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D62" s="31">
         <v>514</v>
@@ -6731,10 +6756,10 @@
         <v>18</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -6745,6 +6770,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A11:M11"/>
     <mergeCell ref="A26:M26"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A31:M31"/>
@@ -6756,13 +6788,6 @@
     <mergeCell ref="B43:M43"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="B49:M49"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <dataValidations count="27">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 D18:D19 D28:D29 G45:G46 D24 E62" xr:uid="{3AE7F0E0-8CE0-44F9-A53F-86B9AF78CE0A}">
@@ -6855,9 +6880,10 @@
     <hyperlink ref="E24" r:id="rId1" xr:uid="{9EAC196A-10B6-4E4F-A8DD-2335A3318ABA}"/>
     <hyperlink ref="F24" r:id="rId2" xr:uid="{98ACE9CD-9E37-4C2A-9E43-8592ABFD17B5}"/>
     <hyperlink ref="G24" r:id="rId3" xr:uid="{3DC38CCF-91BF-4141-82A8-3EE068BAA628}"/>
+    <hyperlink ref="B40" r:id="rId4" xr:uid="{D4081719-E1CB-4173-BC93-038584BC4B4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -6887,83 +6913,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>525</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>549</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>573</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>575</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>576</v>
-      </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
+      <c r="C3" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>569</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>568</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D4" s="28">
         <v>1</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="20"/>
@@ -6976,19 +7002,19 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24"/>
@@ -7001,19 +7027,19 @@
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D6" s="28">
         <v>100</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="20"/>
@@ -7026,19 +7052,19 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D7" s="25">
         <v>101</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="24"/>
@@ -7051,19 +7077,19 @@
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D8" s="28">
         <v>4</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="20"/>
@@ -7075,99 +7101,99 @@
       <c r="M8" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
-        <v>556</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
+      <c r="A10" s="63" t="s">
+        <v>551</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="57" t="s">
-        <v>563</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="B11" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F13" s="20">
         <v>1500</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>22</v>
@@ -7179,34 +7205,34 @@
         <v>22</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F14" s="24">
         <v>1500</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>22</v>
@@ -7218,34 +7244,34 @@
         <v>22</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F15" s="20">
         <v>1500</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>22</v>
@@ -7257,34 +7283,34 @@
         <v>22</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F16" s="24">
         <v>9000</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>22</v>
@@ -7296,34 +7322,34 @@
         <v>22</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F17" s="20">
         <v>9000</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>22</v>
@@ -7335,34 +7361,34 @@
         <v>22</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F18" s="24">
         <v>9000</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>22</v>
@@ -7374,34 +7400,34 @@
         <v>22</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F19" s="20">
         <v>9000</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>22</v>
@@ -7413,34 +7439,34 @@
         <v>22</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F20" s="24">
         <v>9000</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>22</v>
@@ -7452,34 +7478,34 @@
         <v>22</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>559</v>
-      </c>
       <c r="E21" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F21" s="20">
         <v>9000</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>22</v>
@@ -7491,34 +7517,34 @@
         <v>22</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F22" s="24">
         <v>9000</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>22</v>
@@ -7530,34 +7556,34 @@
         <v>22</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F23" s="20">
         <v>9000</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>22</v>
@@ -7569,10 +7595,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M23" s="20"/>
     </row>
@@ -7643,8 +7669,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:DY74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37:AE37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7663,48 +7689,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:129" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="54" t="s">
-        <v>548</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:129" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -7835,13 +7861,13 @@
     </row>
     <row r="4" spans="1:129" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B4" s="18">
         <v>100</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -7855,38 +7881,38 @@
       <c r="M4" s="20"/>
     </row>
     <row r="6" spans="1:129" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="A6" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:129" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="54" t="s">
-        <v>523</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="B7" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:129" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -7896,16 +7922,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>405</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -7947,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="29"/>
@@ -8051,38 +8077,38 @@
       <c r="M15" s="20"/>
     </row>
     <row r="17" spans="1:30" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
+      <c r="A17" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
     </row>
     <row r="18" spans="1:30" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
+      <c r="B18" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
     </row>
     <row r="19" spans="1:30" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -8095,31 +8121,31 @@
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>406</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19"/>
@@ -8166,16 +8192,16 @@
         <v>9508</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M20" s="20"/>
     </row>
@@ -8202,19 +8228,19 @@
         <v>7</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M21" s="24"/>
     </row>
@@ -8241,19 +8267,19 @@
         <v>7</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J22" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>125</v>
-      </c>
       <c r="L22" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M22" s="20"/>
     </row>
@@ -8423,21 +8449,21 @@
       <c r="M33" s="24"/>
     </row>
     <row r="35" spans="1:31" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>570</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
+      <c r="A35" s="59" t="s">
+        <v>610</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
@@ -8445,20 +8471,20 @@
     </row>
     <row r="36" spans="1:31" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
+      <c r="B36" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
@@ -8469,52 +8495,52 @@
         <v>0</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="J37" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="K37" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="L37" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="M37" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="O37" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="P37" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="Q37" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>422</v>
       </c>
       <c r="R37"/>
       <c r="S37"/>
@@ -8532,24 +8558,24 @@
       <c r="AE37"/>
     </row>
     <row r="38" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
-        <v>159</v>
+      <c r="A38" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
@@ -8561,7 +8587,7 @@
       <c r="Q38" s="20"/>
     </row>
     <row r="39" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -8580,7 +8606,7 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -8599,7 +8625,7 @@
       <c r="Q40" s="20"/>
     </row>
     <row r="41" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -8618,7 +8644,7 @@
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -8637,7 +8663,7 @@
       <c r="Q42" s="20"/>
     </row>
     <row r="43" spans="1:31" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
@@ -8656,54 +8682,54 @@
       <c r="Q43" s="24"/>
     </row>
     <row r="45" spans="1:31" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
+      <c r="A45" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
     </row>
     <row r="46" spans="1:31" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
+      <c r="B46" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
     </row>
     <row r="47" spans="1:31" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -8716,13 +8742,13 @@
     </row>
     <row r="48" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B48" s="34">
         <v>201</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D48" s="28">
         <v>201</v>
@@ -8830,38 +8856,38 @@
       <c r="M54" s="20"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="58" t="s">
-        <v>526</v>
-      </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
+      <c r="A56" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
     </row>
     <row r="57" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
-      <c r="B57" s="59" t="s">
-        <v>568</v>
-      </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
+      <c r="B57" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
     </row>
     <row r="58" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -8871,10 +8897,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -8895,7 +8921,7 @@
         <v>201</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -8916,7 +8942,7 @@
         <v>201</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -8937,7 +8963,7 @@
         <v>202</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -8958,7 +8984,7 @@
         <v>202</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -9001,51 +9027,51 @@
       <c r="M64" s="24"/>
     </row>
     <row r="66" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="58"/>
+      <c r="A66" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
     </row>
     <row r="67" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
-      <c r="B67" s="57" t="s">
-        <v>569</v>
-      </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
+      <c r="B67" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
     </row>
     <row r="68" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -9063,10 +9089,10 @@
         <v>5</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -9084,10 +9110,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
@@ -9105,10 +9131,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -9126,10 +9152,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
@@ -9313,39 +9339,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="A1" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="60" t="s">
-        <v>489</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="B2" s="65" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9353,51 +9379,51 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>439</v>
-      </c>
       <c r="K3" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C4" s="28">
         <v>0</v>
@@ -9406,97 +9432,97 @@
         <v>15</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I4" s="28">
         <v>22</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="20"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="A7" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:14" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="B8" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -9504,22 +9530,22 @@
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10" s="31">
         <v>1812</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10" s="31">
         <v>5</v>
@@ -9539,22 +9565,22 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" s="32">
         <v>1812</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G11" s="32">
         <v>5</v>
@@ -9574,69 +9600,69 @@
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="A13" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:14" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
-      <c r="B14" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
+      <c r="B14" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -9644,22 +9670,22 @@
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" s="31">
         <v>49</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G16" s="31">
         <v>5</v>
@@ -9679,22 +9705,22 @@
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D17" s="32">
         <v>49</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G17" s="32">
         <v>5</v>
@@ -9713,51 +9739,51 @@
       <c r="M17" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
+      <c r="A19" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
-      <c r="B20" s="70" t="s">
-        <v>611</v>
-      </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="66" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -9771,16 +9797,16 @@
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -9794,14 +9820,14 @@
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -9814,89 +9840,89 @@
       <c r="M23" s="24"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
-        <v>529</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
+      <c r="A25" s="57" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" ht="197.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="54" t="s">
-        <v>542</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
+      <c r="B26" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="55" t="s">
+        <v>525</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>538</v>
+      </c>
+      <c r="K27" s="55" t="s">
         <v>530</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>538</v>
-      </c>
-      <c r="D27" s="66" t="s">
+      <c r="L27" s="55" t="s">
         <v>531</v>
       </c>
-      <c r="E27" s="66" t="s">
-        <v>532</v>
-      </c>
-      <c r="F27" s="66" t="s">
-        <v>533</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>534</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>540</v>
-      </c>
-      <c r="I27" s="66" t="s">
-        <v>541</v>
-      </c>
-      <c r="J27" s="66" t="s">
-        <v>543</v>
-      </c>
-      <c r="K27" s="66" t="s">
-        <v>535</v>
-      </c>
-      <c r="L27" s="66" t="s">
-        <v>536</v>
-      </c>
-      <c r="M27" s="66" t="s">
-        <v>528</v>
+      <c r="M27" s="55" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D28" s="47">
         <v>48</v>
@@ -9908,7 +9934,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H28" s="47">
         <v>5</v>
@@ -10093,69 +10119,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="A1" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="59" t="s">
-        <v>591</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="60" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
+      <c r="B3" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -10170,13 +10196,13 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>171</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -10536,153 +10562,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>589</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="A1" s="70" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="243" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="60" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="66" t="s">
+      <c r="B3" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>578</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>582</v>
       </c>
-      <c r="F3" s="66" t="s">
-        <v>583</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>585</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>584</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>581</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>586</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>587</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>588</v>
-      </c>
-      <c r="M3" s="66"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>180</v>
-      </c>
       <c r="I5" s="30" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M5" s="30"/>
     </row>
@@ -10867,79 +10893,79 @@
       <c r="M17" s="30"/>
     </row>
     <row r="19" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="63" t="s">
-        <v>604</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="A19" s="70" t="s">
+        <v>598</v>
+      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="20" spans="1:13" s="6" customFormat="1" ht="231.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="59" t="s">
-        <v>609</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
+      <c r="B20" s="60" t="s">
+        <v>603</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
     </row>
     <row r="21" spans="1:13" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>606</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
+      <c r="B21" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
@@ -10952,19 +10978,19 @@
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -10978,13 +11004,13 @@
     <row r="24" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="29" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="29"/>
@@ -10999,16 +11025,16 @@
     <row r="25" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -11022,16 +11048,16 @@
     <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -11048,7 +11074,7 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -11065,7 +11091,7 @@
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -11082,7 +11108,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -11099,7 +11125,7 @@
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -11116,7 +11142,7 @@
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
@@ -11133,7 +11159,7 @@
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -11150,7 +11176,7 @@
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="E33" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
@@ -11167,7 +11193,7 @@
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -11184,7 +11210,7 @@
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -11201,7 +11227,7 @@
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -11218,7 +11244,7 @@
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="E37" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -11235,7 +11261,7 @@
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
@@ -11252,7 +11278,7 @@
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -11269,7 +11295,7 @@
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
@@ -11286,7 +11312,7 @@
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="E41" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
@@ -11366,137 +11392,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
+      <c r="A1" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="C2" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="A4" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
     </row>
     <row r="5" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="L5" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H6" s="28">
         <v>56</v>
@@ -11507,16 +11533,16 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="N6" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P6" s="20" t="s">
         <v>21</v>
@@ -11524,25 +11550,25 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H7" s="25">
         <v>995</v>
@@ -11553,16 +11579,16 @@
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>180</v>
-      </c>
       <c r="N7" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>21</v>
@@ -11570,25 +11596,25 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="28">
         <v>996</v>
@@ -11599,16 +11625,16 @@
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="N8" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P8" s="20" t="s">
         <v>21</v>
@@ -11616,25 +11642,25 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H9" s="25">
         <v>999</v>
@@ -11645,112 +11671,112 @@
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="M9" s="24" t="s">
-        <v>180</v>
-      </c>
       <c r="N9" s="24" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P9" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
+      <c r="A12" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
     </row>
     <row r="13" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="L13" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H14" s="28">
         <v>1</v>
@@ -11761,14 +11787,14 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N14" s="42"/>
       <c r="O14" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P14" s="20" t="s">
         <v>21</v>
@@ -11776,25 +11802,25 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H15" s="25">
         <v>64</v>
@@ -11805,16 +11831,16 @@
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>21</v>
@@ -11822,25 +11848,25 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H16" s="28">
         <v>80</v>
@@ -11851,16 +11877,16 @@
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N16" s="42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P16" s="20" t="s">
         <v>21</v>
@@ -11868,25 +11894,25 @@
     </row>
     <row r="17" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H17" s="25">
         <v>87</v>
@@ -11897,14 +11923,14 @@
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P17" s="24" t="s">
         <v>21</v>
@@ -11912,25 +11938,25 @@
     </row>
     <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H18" s="28">
         <v>90</v>
@@ -11941,16 +11967,16 @@
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P18" s="20" t="s">
         <v>21</v>
@@ -11958,25 +11984,25 @@
     </row>
     <row r="19" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H19" s="25">
         <v>91</v>
@@ -11987,16 +12013,16 @@
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P19" s="24" t="s">
         <v>21</v>
@@ -12004,25 +12030,25 @@
     </row>
     <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H20" s="28">
         <v>110</v>
@@ -12033,16 +12059,16 @@
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P20" s="20" t="s">
         <v>21</v>
@@ -12050,25 +12076,25 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H21" s="25">
         <v>136</v>
@@ -12079,14 +12105,14 @@
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N21" s="24"/>
       <c r="O21" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P21" s="24" t="s">
         <v>21</v>
@@ -12094,25 +12120,25 @@
     </row>
     <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H22" s="28">
         <v>168</v>
@@ -12123,16 +12149,16 @@
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P22" s="20" t="s">
         <v>21</v>
@@ -12140,25 +12166,25 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H23" s="25">
         <v>169</v>
@@ -12169,16 +12195,16 @@
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P23" s="24" t="s">
         <v>21</v>
@@ -12186,25 +12212,25 @@
     </row>
     <row r="24" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H24" s="28">
         <v>691</v>
@@ -12215,16 +12241,16 @@
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P24" s="20" t="s">
         <v>21</v>
@@ -12232,25 +12258,25 @@
     </row>
     <row r="25" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H25" s="25">
         <v>811</v>
@@ -12261,16 +12287,16 @@
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P25" s="24" t="s">
         <v>21</v>
@@ -12278,25 +12304,25 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H26" s="28">
         <v>812</v>
@@ -12307,16 +12333,16 @@
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P26" s="20" t="s">
         <v>21</v>
@@ -12324,25 +12350,25 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H27" s="25">
         <v>997</v>
@@ -12353,16 +12379,16 @@
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P27" s="24" t="s">
         <v>21</v>
@@ -12370,25 +12396,25 @@
     </row>
     <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H28" s="28">
         <v>998</v>
@@ -12399,16 +12425,16 @@
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P28" s="20" t="s">
         <v>21</v>
@@ -12416,25 +12442,25 @@
     </row>
     <row r="29" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H29" s="25">
         <v>3001</v>
@@ -12445,16 +12471,16 @@
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P29" s="24" t="s">
         <v>21</v>
@@ -12462,25 +12488,25 @@
     </row>
     <row r="30" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H30" s="28">
         <v>3003</v>
@@ -12491,14 +12517,14 @@
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P30" s="20" t="s">
         <v>21</v>
@@ -12506,25 +12532,25 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H31" s="25">
         <v>3004</v>
@@ -12535,16 +12561,16 @@
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P31" s="24" t="s">
         <v>21</v>
@@ -12552,25 +12578,25 @@
     </row>
     <row r="32" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H32" s="28">
         <v>3006</v>
@@ -12581,14 +12607,14 @@
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N32" s="42"/>
       <c r="O32" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P32" s="20" t="s">
         <v>21</v>
@@ -12596,25 +12622,25 @@
     </row>
     <row r="33" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H33" s="25">
         <v>3007</v>
@@ -12625,14 +12651,14 @@
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N33" s="24"/>
       <c r="O33" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P33" s="24" t="s">
         <v>21</v>
@@ -12640,25 +12666,25 @@
     </row>
     <row r="34" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H34" s="28">
         <v>3011</v>
@@ -12669,14 +12695,14 @@
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N34" s="42"/>
       <c r="O34" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P34" s="20" t="s">
         <v>21</v>
@@ -12684,25 +12710,25 @@
     </row>
     <row r="35" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H35" s="25">
         <v>3019</v>
@@ -12713,14 +12739,14 @@
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N35" s="24"/>
       <c r="O35" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P35" s="24" t="s">
         <v>21</v>
@@ -12728,25 +12754,25 @@
     </row>
     <row r="36" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H36" s="28">
         <v>3103</v>
@@ -12757,16 +12783,16 @@
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P36" s="20" t="s">
         <v>21</v>
@@ -12774,25 +12800,25 @@
     </row>
     <row r="37" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H37" s="25">
         <v>3910</v>
@@ -12803,16 +12829,16 @@
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P37" s="24" t="s">
         <v>21</v>
@@ -12820,25 +12846,25 @@
     </row>
     <row r="38" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H38" s="28">
         <v>3960</v>
@@ -12849,16 +12875,16 @@
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P38" s="20" t="s">
         <v>21</v>
@@ -12866,25 +12892,25 @@
     </row>
     <row r="39" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H39" s="25">
         <v>3961</v>
@@ -12895,16 +12921,16 @@
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P39" s="24" t="s">
         <v>21</v>
@@ -12912,25 +12938,25 @@
     </row>
     <row r="40" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H40" s="28">
         <v>3962</v>
@@ -12941,16 +12967,16 @@
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P40" s="20" t="s">
         <v>21</v>
@@ -12958,25 +12984,25 @@
     </row>
     <row r="41" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H41" s="25">
         <v>3963</v>
@@ -12987,16 +13013,16 @@
       </c>
       <c r="K41" s="24"/>
       <c r="L41" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P41" s="24" t="s">
         <v>21</v>
@@ -13004,25 +13030,25 @@
     </row>
     <row r="42" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H42" s="28">
         <v>3964</v>
@@ -13033,16 +13059,16 @@
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P42" s="20" t="s">
         <v>21</v>
@@ -13050,25 +13076,25 @@
     </row>
     <row r="43" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H43" s="25">
         <v>3965</v>
@@ -13079,16 +13105,16 @@
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P43" s="24" t="s">
         <v>21</v>
@@ -13096,25 +13122,25 @@
     </row>
     <row r="44" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H44" s="28">
         <v>3966</v>
@@ -13125,16 +13151,16 @@
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P44" s="20" t="s">
         <v>21</v>
@@ -13142,25 +13168,25 @@
     </row>
     <row r="45" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H45" s="25">
         <v>3967</v>
@@ -13171,16 +13197,16 @@
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P45" s="24" t="s">
         <v>21</v>
@@ -13188,42 +13214,42 @@
     </row>
     <row r="46" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H46" s="28">
         <v>201</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N46" s="42" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O46" s="20"/>
       <c r="P46" s="20" t="s">
@@ -13232,42 +13258,42 @@
     </row>
     <row r="47" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H47" s="25">
         <v>202</v>
       </c>
       <c r="I47" s="25"/>
       <c r="J47" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K47" s="24"/>
       <c r="L47" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N47" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O47" s="24"/>
       <c r="P47" s="24" t="s">
@@ -13276,42 +13302,42 @@
     </row>
     <row r="48" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H48" s="28">
         <v>203</v>
       </c>
       <c r="I48" s="28"/>
       <c r="J48" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N48" s="42" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O48" s="20"/>
       <c r="P48" s="20" t="s">
@@ -13320,42 +13346,42 @@
     </row>
     <row r="49" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H49" s="25">
         <v>204</v>
       </c>
       <c r="I49" s="25"/>
       <c r="J49" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="24" t="s">
@@ -13364,42 +13390,42 @@
     </row>
     <row r="50" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H50" s="28">
         <v>205</v>
       </c>
       <c r="I50" s="28"/>
       <c r="J50" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N50" s="42" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O50" s="20"/>
       <c r="P50" s="20" t="s">
@@ -13408,42 +13434,42 @@
     </row>
     <row r="51" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H51" s="25">
         <v>206</v>
       </c>
       <c r="I51" s="25"/>
       <c r="J51" s="24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M51" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N51" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O51" s="24"/>
       <c r="P51" s="24" t="s">
@@ -13452,42 +13478,42 @@
     </row>
     <row r="52" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H52" s="28">
         <v>207</v>
       </c>
       <c r="I52" s="28"/>
       <c r="J52" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N52" s="42" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O52" s="20"/>
       <c r="P52" s="20" t="s">
@@ -13836,57 +13862,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="A1" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -13898,19 +13924,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -14027,60 +14053,60 @@
       <c r="M11" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
+      <c r="A13" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="B14" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -14091,7 +14117,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>5</v>
@@ -14100,10 +14126,10 @@
         <v>201</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
